--- a/stream_table.xlsx
+++ b/stream_table.xlsx
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.443039583245681</v>
+        <v>5.881288806059096</v>
       </c>
       <c r="F3" t="n">
-        <v>439.9320999959801</v>
+        <v>1285.898456825352</v>
       </c>
     </row>
     <row r="4">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.443039583245681</v>
+        <v>5.881288806059096</v>
       </c>
       <c r="F4" t="n">
-        <v>439.9320999959801</v>
+        <v>1285.898456825352</v>
       </c>
     </row>
     <row r="5">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8995616501873031</v>
+        <v>3.666276327435916</v>
       </c>
       <c r="F5" t="n">
-        <v>16.21289638498435</v>
+        <v>66.0776926218041</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.708400811632958</v>
+        <v>4.466776181034326</v>
       </c>
       <c r="F6" t="n">
-        <v>334.856454466284</v>
+        <v>381.4391811082967</v>
       </c>
     </row>
     <row r="7">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6342004218000266</v>
+        <v>5.080788952460686</v>
       </c>
       <c r="F7" t="n">
-        <v>121.2885419146805</v>
+        <v>970.5369683388589</v>
       </c>
     </row>
     <row r="8">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6342004218000266</v>
+        <v>5.080788952460686</v>
       </c>
       <c r="F8" t="n">
-        <v>121.2885419146805</v>
+        <v>970.5369683388589</v>
       </c>
     </row>
     <row r="9">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.03171002109000133</v>
+        <v>0.2540394476230343</v>
       </c>
       <c r="F9" t="n">
-        <v>6.064427095734027</v>
+        <v>48.52684841694294</v>
       </c>
     </row>
     <row r="10">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6024904007100251</v>
+        <v>4.826749504837651</v>
       </c>
       <c r="F10" t="n">
-        <v>115.2241148189465</v>
+        <v>922.0101199219158</v>
       </c>
     </row>
     <row r="11">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.0316673951310102</v>
+        <v>0.2539976294970997</v>
       </c>
       <c r="F11" t="n">
-        <v>6.048127100517057</v>
+        <v>48.51077709654021</v>
       </c>
     </row>
     <row r="12">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.347996010082952</v>
+        <v>9.340476362773011</v>
       </c>
       <c r="F12" t="n">
-        <v>200.387418723602</v>
+        <v>197.0182712762979</v>
       </c>
     </row>
     <row r="13">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9.347996010082952</v>
+        <v>9.340476362773011</v>
       </c>
       <c r="F13" t="n">
-        <v>200.387418723602</v>
+        <v>197.0182712762979</v>
       </c>
     </row>
     <row r="14">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.07533065612710137</v>
+        <v>2.96897501154049</v>
       </c>
       <c r="F14" t="n">
-        <v>2.727302402183777</v>
+        <v>63.12819356535026</v>
       </c>
     </row>
     <row r="15">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.07533065612710137</v>
+        <v>2.96897501154049</v>
       </c>
       <c r="F15" t="n">
-        <v>2.727302402183777</v>
+        <v>63.12819356535026</v>
       </c>
     </row>
     <row r="16">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.554804084648952</v>
+        <v>1.547284437339011</v>
       </c>
       <c r="F16" t="n">
-        <v>47.43952586043418</v>
+        <v>44.07037841313006</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.05402975100665702</v>
+        <v>0.4859843293806062</v>
       </c>
       <c r="F20" t="n">
-        <v>2.336723906987963</v>
+        <v>17.65278531954788</v>
       </c>
     </row>
     <row r="21">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.02146375049146245</v>
+        <v>2.489635024365289</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3928555620187599</v>
+        <v>45.56831608286056</v>
       </c>
     </row>
     <row r="22">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7.814655675925462</v>
+        <v>10.28282694979929</v>
       </c>
       <c r="F22" t="n">
-        <v>153.3407484251866</v>
+        <v>198.5162089460284</v>
       </c>
     </row>
     <row r="23">
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.6341577961036978</v>
+        <v>5.080747132552736</v>
       </c>
       <c r="F32" t="n">
-        <v>121.2722419691607</v>
+        <v>970.5208966780378</v>
       </c>
     </row>
     <row r="33">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.446066894640746</v>
+        <v>5.900175878399724</v>
       </c>
       <c r="F33" t="n">
-        <v>441.3089661219628</v>
+        <v>1293.926768278144</v>
       </c>
     </row>
     <row r="34">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.07230334473203728</v>
+        <v>2.950087939199862</v>
       </c>
       <c r="F34" t="n">
-        <v>1.350436276201107</v>
+        <v>55.09988211255751</v>
       </c>
     </row>
   </sheetData>
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1362610221020779</v>
+        <v>1.092921471840599</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.4970868854237961</v>
+        <v>3.9870310824694</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8095667589595694</v>
+        <v>0.8012339428363011</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.957959855056302e-08</v>
+        <v>9.569334047451743e-15</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.105919877704816e-16</v>
+        <v>5.110956044205514e-23</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0001248971806393952</v>
+        <v>0.0001023089127864086</v>
       </c>
     </row>
     <row r="4">
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1362610221020779</v>
+        <v>1.092921471840599</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4970868854237961</v>
+        <v>3.9870310824694</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8095667589595694</v>
+        <v>0.8012339428363011</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.957959855056302e-08</v>
+        <v>9.569334047451743e-15</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.105919877704816e-16</v>
+        <v>5.110956044205514e-23</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0001248971806393952</v>
+        <v>0.0001023089127864086</v>
       </c>
     </row>
     <row r="5">
@@ -1912,13 +1912,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0001620831802139285</v>
+        <v>0.0006605903292677327</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8993995670070891</v>
+        <v>3.665615737106649</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2039,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001620831802139285</v>
+        <v>0.0006605903292677327</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8993995670070891</v>
+        <v>3.665615737106649</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8087571922006098</v>
+        <v>0.8004327088934647</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.196924504512777e-05</v>
+        <v>6.714470494496137e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2187,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1362610221020779</v>
+        <v>1.092921471840599</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.4970868854237961</v>
+        <v>3.9870310824694</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0008095667589596142</v>
+        <v>0.0008012339428363463</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.957959855056302e-08</v>
+        <v>9.569334047451743e-15</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.105919877704816e-16</v>
+        <v>5.110956044205514e-23</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.292793559426741e-05</v>
+        <v>3.516420784144723e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2314,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1362610221020779</v>
+        <v>1.092921471840599</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4970868854237961</v>
+        <v>3.9870310824694</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0008095667589596142</v>
+        <v>0.0008012339428363463</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.957959855056302e-08</v>
+        <v>9.569334047451743e-15</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.105919877704816e-16</v>
+        <v>5.110956044205514e-23</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.292793559426741e-05</v>
+        <v>3.516420784144723e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.006813051105103895</v>
+        <v>0.05464607359202994</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02485434427118981</v>
+        <v>0.19935155412347</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.047833794798071e-05</v>
+        <v>4.006169714181732e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.789799275281512e-10</v>
+        <v>4.784667023725872e-16</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.529599388524079e-18</v>
+        <v>2.555478022102757e-24</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.146396779713371e-06</v>
+        <v>1.758210392072362e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.129447970996974</v>
+        <v>1.038275398248569</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.4722325411526063</v>
+        <v>3.787679528345929</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -2583,13 +2583,13 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0007690884210116335</v>
+        <v>0.0007611722456945289</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.860061862303487e-08</v>
+        <v>9.090867345079156e-15</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.050623883819575e-16</v>
+        <v>4.855408241995238e-23</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.078153881455404e-05</v>
+        <v>3.340599744937487e-05</v>
       </c>
     </row>
     <row r="11">
@@ -2695,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.006813051052332615</v>
+        <v>0.05464607397533026</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02485434407867758</v>
+        <v>0.1993515555217694</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0008040774815197771</v>
+        <v>6.009749351245135e-10</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.005746573324564849</v>
+        <v>3.000548514023082e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0003154077444432821</v>
+        <v>3.477371790024223e-06</v>
       </c>
       <c r="AH12" t="n">
         <v>0.000321834</v>
@@ -2867,7 +2867,7 @@
         <v>0.002094222</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.003041920912424304</v>
+        <v>0.002354848695106401</v>
       </c>
     </row>
     <row r="13">
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0008040774815197771</v>
+        <v>6.009749351245135e-10</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.005746573324564849</v>
+        <v>3.000548514023082e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0003154077444432821</v>
+        <v>3.477371790024223e-06</v>
       </c>
       <c r="AH13" t="n">
         <v>0.000321834</v>
@@ -2994,7 +2994,7 @@
         <v>0.002094222</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.003041920912424304</v>
+        <v>0.002354848695106401</v>
       </c>
     </row>
     <row r="14">
@@ -3055,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0006513814840724079</v>
+        <v>0.02657736882162038</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07132627250592867</v>
+        <v>2.910221885967431</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.000325690742036204</v>
+        <v>0.01328868441081019</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.001013224979924399</v>
+        <v>0.01014220180805392</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.001912045696455232</v>
+        <v>0.00762861451485929</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.816325555671239e-05</v>
+        <v>0.0004000936282099758</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.387746312774192e-05</v>
+        <v>0.0007161623895048602</v>
       </c>
     </row>
     <row r="15">
@@ -3182,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0006513814840724079</v>
+        <v>0.02657736882162038</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07132627250592867</v>
+        <v>2.910221885967431</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.000325690742036204</v>
+        <v>0.01328868441081019</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -3218,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.001013224979924399</v>
+        <v>0.01014220180805392</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001912045696455232</v>
+        <v>0.00762861451485929</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.816325555671239e-05</v>
+        <v>0.0004000936282099758</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.387746312774192e-05</v>
+        <v>0.0007161623895048602</v>
       </c>
     </row>
     <row r="16">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0008040774815197771</v>
+        <v>6.009749351245135e-10</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.005746573324564849</v>
+        <v>3.000548514023082e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0003154077444432821</v>
+        <v>3.477371790024223e-06</v>
       </c>
       <c r="AH16" t="n">
         <v>0.000321834</v>
@@ -3375,7 +3375,7 @@
         <v>0.002094222</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.003041920912424304</v>
+        <v>0.002354848695106401</v>
       </c>
     </row>
     <row r="17">
@@ -3817,13 +3817,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0005139034985386212</v>
+        <v>0.01063094752864815</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05</v>
+        <v>0.4365332828951147</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3847,19 +3847,19 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.000325690742036204</v>
+        <v>0.01328868441081019</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.000162845371018102</v>
+        <v>0.006644342205405094</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.001013224979924399</v>
+        <v>0.01014220180805392</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.001912045696455232</v>
+        <v>0.00762861451485929</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.816325555671239e-05</v>
+        <v>0.0004000936282099758</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.387746312774192e-05</v>
+        <v>0.0007161623895048602</v>
       </c>
     </row>
     <row r="21">
@@ -3944,13 +3944,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0001374779855337867</v>
+        <v>0.01594642129297223</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02132627250592867</v>
+        <v>2.473688603072317</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2791236398735337</v>
+        <v>0.2949325831809722</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>7.535532036051928</v>
+        <v>9.987894366618317</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -5362,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.1362610221020779</v>
+        <v>1.092921471840599</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4970868854237961</v>
+        <v>3.9870310824694</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -5377,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0007690884210136389</v>
+        <v>0.000761172245329967</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.860061863233968e-08</v>
+        <v>9.090867340845394e-15</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.050623884345149e-16</v>
+        <v>4.855408239733705e-23</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>4.078155619144107e-05</v>
+        <v>3.34059973976696e-05</v>
       </c>
     </row>
     <row r="33">
@@ -5489,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.1362610221020779</v>
+        <v>1.092921471840599</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.4970868854237961</v>
+        <v>3.9870310824694</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -5504,13 +5504,13 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.8105799839394938</v>
+        <v>0.811376144644355</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.001912065276053783</v>
+        <v>0.00762861451486886</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.816325555682298e-05</v>
+        <v>0.0004000936282099758</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.0001387746437671371</v>
+        <v>0.0008184713022912688</v>
       </c>
     </row>
     <row r="34">
@@ -5595,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0006513814840724079</v>
+        <v>0.02657736882162038</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07132627250592867</v>
+        <v>2.910221885967431</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.000325690742036204</v>
+        <v>0.01328868441081019</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -6096,10 +6096,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.09442639251488853</v>
+        <v>0.1858302674601927</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3444721067912422</v>
+        <v>0.6779179213851614</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -6111,13 +6111,13 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5610149356670409</v>
+        <v>0.1362344154925437</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.356830316915121e-08</v>
+        <v>1.627081131875908e-15</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.663822188559673e-17</v>
+        <v>8.69019735766086e-24</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.65514585251201e-05</v>
+        <v>1.739566210062778e-05</v>
       </c>
     </row>
     <row r="4">
@@ -6223,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09442639251488853</v>
+        <v>0.1858302674601927</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3444721067912422</v>
+        <v>0.6779179213851614</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -6238,13 +6238,13 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5610149356670409</v>
+        <v>0.1362344154925437</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.356830316915121e-08</v>
+        <v>1.627081131875908e-15</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.663822188559673e-17</v>
+        <v>8.69019735766086e-24</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.65514585251201e-05</v>
+        <v>1.739566210062778e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6456,13 +6456,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.487421166640799e-05</v>
+        <v>0.0001478897313173114</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5264570005368979</v>
+        <v>0.8206401190797608</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.4734001451495257</v>
+        <v>0.1791969591608498</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.798010190991321e-05</v>
+        <v>1.503202807206994e-05</v>
       </c>
     </row>
     <row r="7">
@@ -6604,10 +6604,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2148548273041722</v>
+        <v>0.2151086144428975</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7838009379005672</v>
+        <v>0.7847267658182169</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -6619,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.00127651564258165</v>
+        <v>0.0001576987255981769</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.087288793500169e-08</v>
+        <v>1.883434666739543e-15</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.743801864032077e-16</v>
+        <v>1.005937481762595e-23</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.768827979083759e-05</v>
+        <v>6.921013285626987e-06</v>
       </c>
     </row>
     <row r="8">
@@ -6731,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2148548273041722</v>
+        <v>0.2151086144428975</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7838009379005672</v>
+        <v>0.7847267658182169</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -6746,13 +6746,13 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.00127651564258165</v>
+        <v>0.0001576987255981769</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.087288793500169e-08</v>
+        <v>1.883434666739543e-15</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.743801864032077e-16</v>
+        <v>1.005937481762595e-23</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.768827979083759e-05</v>
+        <v>6.921013285626987e-06</v>
       </c>
     </row>
     <row r="9">
@@ -6858,10 +6858,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2148548273041722</v>
+        <v>0.2151086144428975</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7838009379005672</v>
+        <v>0.7847267658182168</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -6873,13 +6873,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00127651564258165</v>
+        <v>0.0001576987255981769</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.087288793500169e-08</v>
+        <v>1.883434666739543e-15</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.743801864032077e-16</v>
+        <v>1.005937481762595e-23</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.768827979083759e-05</v>
+        <v>6.921013285626987e-06</v>
       </c>
     </row>
     <row r="10">
@@ -6985,10 +6985,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2148548273041722</v>
+        <v>0.2151086144428975</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7838009379005673</v>
+        <v>0.7847267658182168</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -7000,13 +7000,13 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.00127651564258165</v>
+        <v>0.0001576987255981769</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.087288793500169e-08</v>
+        <v>1.883434666739543e-15</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.743801864032077e-16</v>
+        <v>1.005937481762595e-23</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.76882797908376e-05</v>
+        <v>6.921013285626987e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7112,10 +7112,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.215144031397169</v>
+        <v>0.215144031397168</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7848559686028309</v>
+        <v>0.7848559686028319</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -7212,19 +7212,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.183074959389277e-06</v>
+        <v>1.184027406147912e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>0.000666880900812952</v>
+        <v>0.0006674177801943758</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04974081460651733</v>
+        <v>0.04978085896488014</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9456831245140372</v>
+        <v>0.9464444565154382</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -7254,37 +7254,37 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.601602746219422e-05</v>
+        <v>6.434092992513023e-11</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0006147385298802514</v>
+        <v>3.212414867813311e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.374068025949909e-05</v>
+        <v>3.722906257633157e-07</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.442812765996722e-05</v>
+        <v>3.445584438098761e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.001343019400784767</v>
+        <v>0.001344100612473773</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0002706370431984759</v>
+        <v>0.0002708549223552573</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.919727817649641e-05</v>
+        <v>3.922883435157241e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.272979147304049e-05</v>
+        <v>2.274809032726028e-05</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0009140521659170218</v>
+        <v>0.0009147880330873492</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0002240289788037058</v>
+        <v>0.0002242093356551534</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0003254088800576318</v>
+        <v>0.0002521122696152609</v>
       </c>
     </row>
     <row r="13">
@@ -7339,19 +7339,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.183074959389277e-06</v>
+        <v>1.184027406147912e-06</v>
       </c>
       <c r="R13" t="n">
-        <v>0.000666880900812952</v>
+        <v>0.0006674177801943758</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04974081460651733</v>
+        <v>0.04978085896488014</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9456831245140372</v>
+        <v>0.9464444565154382</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -7381,37 +7381,37 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.601602746219422e-05</v>
+        <v>6.434092992513023e-11</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0006147385298802514</v>
+        <v>3.212414867813311e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.374068025949909e-05</v>
+        <v>3.722906257633157e-07</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.442812765996722e-05</v>
+        <v>3.445584438098761e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.001343019400784767</v>
+        <v>0.001344100612473773</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0002706370431984759</v>
+        <v>0.0002708549223552573</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.919727817649641e-05</v>
+        <v>3.922883435157241e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.272979147304049e-05</v>
+        <v>2.274809032726028e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0009140521659170218</v>
+        <v>0.0009147880330873492</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0002240289788037058</v>
+        <v>0.0002242093356551534</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0003254088800576318</v>
+        <v>0.0002521122696152609</v>
       </c>
     </row>
     <row r="14">
@@ -7472,13 +7472,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.00864696416520476</v>
+        <v>0.008951698386922554</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9468425760899213</v>
+        <v>0.9802109733680198</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.00432348208260238</v>
+        <v>0.004475849193461277</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -7508,13 +7508,13 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01345036711501409</v>
+        <v>0.003416061694231475</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.02538203959393557</v>
+        <v>0.002569443826642747</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.001170350294147966</v>
+        <v>0.0001347581662542799</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0001842206591739652</v>
+        <v>0.0002412153644679112</v>
       </c>
     </row>
     <row r="15">
@@ -7599,13 +7599,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00864696416520476</v>
+        <v>0.008951698386922554</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9468425760899213</v>
+        <v>0.9802109733680198</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.00432348208260238</v>
+        <v>0.004475849193461277</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -7635,13 +7635,13 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01345036711501409</v>
+        <v>0.003416061694231475</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.02538203959393557</v>
+        <v>0.002569443826642747</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.001170350294147966</v>
+        <v>0.0001347581662542799</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0001842206591739652</v>
+        <v>0.0002412153644679112</v>
       </c>
     </row>
     <row r="16">
@@ -7720,19 +7720,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.113037654835484e-06</v>
+        <v>7.147606305030582e-06</v>
       </c>
       <c r="R16" t="n">
-        <v>0.004009508375717659</v>
+        <v>0.004028994184625232</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1196232865788962</v>
+        <v>0.1202046437640536</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8528639230539429</v>
+        <v>0.8570087562533043</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -7762,37 +7762,37 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0005171567848699884</v>
+        <v>3.884062429775732e-10</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.003696011208937831</v>
+        <v>1.939235244415284e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0002028601208071149</v>
+        <v>2.247403067017554e-06</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0002069932817758609</v>
+        <v>0.0002079992483822068</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.008074676497157905</v>
+        <v>0.008113918615759521</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.001627159347585076</v>
+        <v>0.001635067178954437</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0002356669908561055</v>
+        <v>0.000236812308815149</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0001366590183920014</v>
+        <v>0.0001373231675265961</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.005495583710104039</v>
+        <v>0.005522291696215052</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.00134693626076551</v>
+        <v>0.001353482236014473</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.001956465732537047</v>
+        <v>0.001521923596127046</v>
       </c>
     </row>
     <row r="17">
@@ -8234,13 +8234,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.009511491150038857</v>
+        <v>0.02187508297273174</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9254160729676414</v>
+        <v>0.8982455945677971</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -8264,19 +8264,19 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.006027988949941219</v>
+        <v>0.02734385371591467</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.00301399447497061</v>
+        <v>0.01367192685795733</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.01875309363908708</v>
+        <v>0.02086940091459389</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.03538875639496559</v>
+        <v>0.01569724382796883</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.001631753874746707</v>
+        <v>0.0008232644635268397</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.0002568485486085633</v>
+        <v>0.001473632679509685</v>
       </c>
     </row>
     <row r="21">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.006405124099279424</v>
+        <v>0.006405124099279423</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -8488,13 +8488,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.03571797036860207</v>
+        <v>0.0286820525737554</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9642820296313979</v>
+        <v>0.9713179474262446</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -9779,10 +9779,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.2148692690356777</v>
+        <v>0.2151103850136858</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7838536220447445</v>
+        <v>0.7847332249472103</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -9794,13 +9794,13 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.001212771372896403</v>
+        <v>0.0001498150223720205</v>
       </c>
       <c r="AF32" t="n">
-        <v>2.933121495410599e-08</v>
+        <v>1.789277660090484e-15</v>
       </c>
       <c r="AG32" t="n">
-        <v>1.656723122857186e-16</v>
+        <v>9.556484731595344e-24</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>6.430821546625353e-05</v>
+        <v>6.575016730046417e-06</v>
       </c>
     </row>
     <row r="33">
@@ -9906,10 +9906,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.09422871279819317</v>
+        <v>0.1852354055820158</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.3437509614984237</v>
+        <v>0.6757478361053167</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -9921,13 +9921,13 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.5605411388253035</v>
+        <v>0.1375172810720383</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.001322252299074178</v>
+        <v>0.001292946968377141</v>
       </c>
       <c r="AG33" t="n">
-        <v>6.09676190524546e-05</v>
+        <v>6.781045793477113e-05</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>9.596695995285451e-05</v>
+        <v>0.0001387198143173418</v>
       </c>
     </row>
     <row r="34">

--- a/stream_table.xlsx
+++ b/stream_table.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.881288806059096</v>
+        <v>5.878288708300023</v>
       </c>
       <c r="F3" t="n">
-        <v>1285.898456825352</v>
+        <v>1284.967983538659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F10_T</t>
+          <t>F10__to__X103_Final_Strip__T</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.881288806059096</v>
+        <v>5.878288708300023</v>
       </c>
       <c r="F4" t="n">
-        <v>1285.898456825352</v>
+        <v>1284.967983538659</v>
       </c>
     </row>
     <row r="5">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.666276327435916</v>
+        <v>3.664406127254156</v>
       </c>
       <c r="F5" t="n">
-        <v>66.0776926218041</v>
+        <v>66.04398580275534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>F11__to__X103_Final_Strip__T</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.466776181034326</v>
+        <v>3.664406127254156</v>
       </c>
       <c r="F6" t="n">
-        <v>381.4391811082967</v>
+        <v>66.04398580275534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F13</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -593,20 +593,20 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.080788952460686</v>
+        <v>4.463813740458696</v>
       </c>
       <c r="F7" t="n">
-        <v>970.5369683388589</v>
+        <v>380.9800708812721</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F13_T</t>
+          <t>F13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="C8" t="n">
         <v>100000</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.080788952460686</v>
+        <v>5.078881095095483</v>
       </c>
       <c r="F8" t="n">
-        <v>970.5369683388589</v>
+        <v>970.0318984601419</v>
       </c>
     </row>
     <row r="9">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2540394476230343</v>
+        <v>0.2539440547547742</v>
       </c>
       <c r="F9" t="n">
-        <v>48.52684841694294</v>
+        <v>48.50159492300709</v>
       </c>
     </row>
     <row r="10">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.826749504837651</v>
+        <v>4.824937040340709</v>
       </c>
       <c r="F10" t="n">
-        <v>922.0101199219158</v>
+        <v>921.5303035371345</v>
       </c>
     </row>
     <row r="11">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2539976294970997</v>
+        <v>0.2557796353543366</v>
       </c>
       <c r="F11" t="n">
-        <v>48.51077709654021</v>
+        <v>48.98535733242784</v>
       </c>
     </row>
     <row r="12">
@@ -713,20 +713,20 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.340476362773011</v>
+        <v>9.350066975833931</v>
       </c>
       <c r="F12" t="n">
-        <v>197.0182712762979</v>
+        <v>200.9788085527522</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>F17_T</t>
+          <t>F17__to__T101_Evaporator__T</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>388.15</v>
+        <v>323.15</v>
       </c>
       <c r="C13" t="n">
         <v>100000</v>
@@ -737,23 +737,23 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9.340476362773011</v>
+        <v>9.350066975833931</v>
       </c>
       <c r="F13" t="n">
-        <v>197.0182712762979</v>
+        <v>200.9788085527522</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>F18</t>
+          <t>F17__to__T101_Evaporator__p</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="C14" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -761,20 +761,20 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2.96897501154049</v>
+        <v>9.350066975833931</v>
       </c>
       <c r="F14" t="n">
-        <v>63.12819356535026</v>
+        <v>200.9788085527522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F18_T</t>
+          <t>F18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>388.15</v>
+        <v>298.15</v>
       </c>
       <c r="C15" t="n">
         <v>100000</v>
@@ -785,20 +785,20 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.96897501154049</v>
+        <v>2.95754350174995</v>
       </c>
       <c r="F15" t="n">
-        <v>63.12819356535026</v>
+        <v>60.00304527199359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>F19</t>
+          <t>F18__to__T102_Evaporator__T</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>388.15</v>
+        <v>323.15</v>
       </c>
       <c r="C16" t="n">
         <v>100000</v>
@@ -809,47 +809,47 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.547284437339011</v>
+        <v>2.95754350174995</v>
       </c>
       <c r="F16" t="n">
-        <v>44.07037841313006</v>
+        <v>60.00304527199359</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>F1_T</t>
+          <t>F18__to__T102_Evaporator__p</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="C17" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.9844615539999999</v>
+        <v>2.95754350174995</v>
       </c>
       <c r="F17" t="n">
-        <v>239.603226011292</v>
+        <v>60.00304527199359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="C18" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -857,44 +857,44 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.508336999999999</v>
+        <v>6.93811657712882</v>
       </c>
       <c r="F18" t="n">
-        <v>303.422016846</v>
+        <v>143.7663001150042</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F20</t>
+          <t>F1__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>388.15</v>
+        <v>373.15</v>
       </c>
       <c r="C19" t="n">
         <v>100000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7.793191925433999</v>
+        <v>0.9844615539999999</v>
       </c>
       <c r="F19" t="n">
-        <v>152.9478928631678</v>
+        <v>239.603226011292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F21</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.15</v>
+        <v>298.15</v>
       </c>
       <c r="C20" t="n">
         <v>100000</v>
@@ -905,23 +905,23 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.4859843293806062</v>
+        <v>9.508336999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>17.65278531954788</v>
+        <v>303.422016846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F22</t>
+          <t>F20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>388.15</v>
+        <v>323.15</v>
       </c>
       <c r="C21" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -929,88 +929,88 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.489635024365289</v>
+        <v>2.41195039870511</v>
       </c>
       <c r="F21" t="n">
-        <v>45.56831608286056</v>
+        <v>57.21250843774795</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F23</t>
+          <t>F21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>388.15</v>
+        <v>323.15</v>
       </c>
       <c r="C22" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10.28282694979929</v>
+        <v>2.268703775947846</v>
       </c>
       <c r="F22" t="n">
-        <v>198.5162089460284</v>
+        <v>46.7887946032161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F2_B</t>
+          <t>F22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>298.15</v>
+        <v>323.15</v>
       </c>
       <c r="C23" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.034165</v>
+        <v>0.6954732334673073</v>
       </c>
       <c r="F23" t="n">
-        <v>18.630482475</v>
+        <v>13.30700700646003</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>F2_B_T</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>373.15</v>
+        <v>323.15</v>
       </c>
       <c r="C24" t="n">
-        <v>100000</v>
+        <v>9332.565789473683</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.034165</v>
+        <v>3.107423632172417</v>
       </c>
       <c r="F24" t="n">
-        <v>18.630482475</v>
+        <v>70.51951544420798</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F2_M</t>
+          <t>F2_B</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.508336999999999</v>
+        <v>1.034165</v>
       </c>
       <c r="F25" t="n">
-        <v>303.422016846</v>
+        <v>18.630482475</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F2_T</t>
+          <t>F2_B__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1049,40 +1049,40 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9.508336999999999</v>
+        <v>1.034165</v>
       </c>
       <c r="F26" t="n">
-        <v>303.422016846</v>
+        <v>18.630482475</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F2_M</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>373.15</v>
+        <v>298.15</v>
       </c>
       <c r="C27" t="n">
         <v>100000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.7737253141399999</v>
+        <v>9.508336999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>29.89542977327291</v>
+        <v>303.422016846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F2__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1093,20 +1093,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.125091068</v>
+        <v>9.508336999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>11.411307587232</v>
+        <v>303.422016846</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1117,48 +1117,48 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10.15990510862</v>
+        <v>0.7737253141399999</v>
       </c>
       <c r="F29" t="n">
-        <v>520.4241428764042</v>
+        <v>29.89542977327291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F5_T</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>298.15</v>
+        <v>373.15</v>
       </c>
       <c r="C30" t="n">
         <v>100000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10.15990510862</v>
+        <v>0.125091068</v>
       </c>
       <c r="F30" t="n">
-        <v>520.4241428764042</v>
+        <v>11.411307587232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>298.15</v>
+        <v>373.15</v>
       </c>
       <c r="C31" t="n">
         <v>100000</v>
@@ -1178,7 +1178,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5.080747132552736</v>
+        <v>10.15990510862</v>
       </c>
       <c r="F32" t="n">
-        <v>970.5208966780378</v>
+        <v>520.4241428764042</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.900175878399724</v>
+        <v>5.080716673913914</v>
       </c>
       <c r="F33" t="n">
-        <v>1293.926768278144</v>
+        <v>970.5156605293754</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>F9</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1241,10 +1241,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.950087939199862</v>
+        <v>5.890554806699982</v>
       </c>
       <c r="F34" t="n">
-        <v>55.09988211255751</v>
+        <v>1289.960994853027</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>298.15</v>
+      </c>
+      <c r="C35" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.945277403349991</v>
+      </c>
+      <c r="F35" t="n">
+        <v>55.01003395762488</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1679,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.092921471840599</v>
+        <v>1.091113694018372</v>
       </c>
       <c r="AA3" t="n">
         <v>3.9870310824694</v>
@@ -1694,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8012339428363011</v>
+        <v>0.8001316983197831</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.569334047451743e-15</v>
+        <v>2.395409162788083e-15</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.110956044205514e-23</v>
+        <v>1.12479454850224e-23</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -1724,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0001023089127864086</v>
+        <v>1.223349246620378e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F10_T</t>
+          <t>F10__to__X103_Final_Strip__T</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1806,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.092921471840599</v>
+        <v>1.091113694018372</v>
       </c>
       <c r="AA4" t="n">
         <v>3.9870310824694</v>
@@ -1821,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8012339428363011</v>
+        <v>0.8001316983197831</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.569334047451743e-15</v>
+        <v>2.395409162788083e-15</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.110956044205514e-23</v>
+        <v>1.12479454850224e-23</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1851,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0001023089127864086</v>
+        <v>1.223349246620378e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1912,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0006605903292677327</v>
+        <v>0.0006602533562620101</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.665615737106649</v>
+        <v>3.663745873897894</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1984,7 +2008,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>F11__to__X103_Final_Strip__T</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2039,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0006605903292677327</v>
+        <v>0.0006602533562620101</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3.665615737106649</v>
+        <v>3.663745873897894</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2075,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8004327088934647</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -2105,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.714470494496137e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F13</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2166,13 +2190,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.0006602533562620101</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3.663745873897894</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2187,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.092921471840599</v>
+        <v>6.801781784293581e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.9870310824694</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -2202,13 +2226,13 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0008012339428363463</v>
+        <v>0.7993315666214633</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.569334047451743e-15</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.110956044205514e-23</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -2232,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.516420784144723e-05</v>
+        <v>8.028765233822159e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F13_T</t>
+          <t>F13</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2314,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.092921471840599</v>
+        <v>1.091045676200529</v>
       </c>
       <c r="AA8" t="n">
         <v>3.9870310824694</v>
@@ -2329,13 +2353,13 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0008012339428363463</v>
+        <v>0.0008001316983198275</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.569334047451743e-15</v>
+        <v>2.395409162788083e-15</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.110956044205514e-23</v>
+        <v>1.12479454850224e-23</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -2359,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.516420784144723e-05</v>
+        <v>4.204727232381621e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2441,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05464607359202994</v>
+        <v>0.05455228381002644</v>
       </c>
       <c r="AA9" t="n">
         <v>0.19935155412347</v>
@@ -2456,13 +2480,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.006169714181732e-05</v>
+        <v>4.000658491599138e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.784667023725872e-16</v>
+        <v>1.197704581394041e-16</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.555478022102757e-24</v>
+        <v>5.623972742511199e-25</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -2486,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.758210392072362e-06</v>
+        <v>2.10236361619081e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2568,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.038275398248569</v>
+        <v>1.036493392390502</v>
       </c>
       <c r="AA10" t="n">
         <v>3.787679528345929</v>
@@ -2583,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0007611722456945289</v>
+        <v>0.0007601251134038361</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.090867345079156e-15</v>
+        <v>2.275638704648678e-15</v>
       </c>
       <c r="AG10" t="n">
-        <v>4.855408241995238e-23</v>
+        <v>1.068554821077128e-23</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -2613,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.340599744937487e-05</v>
+        <v>3.994490870762539e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2695,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.05464607397533026</v>
+        <v>0.0564280798325672</v>
       </c>
       <c r="AA11" t="n">
         <v>0.1993515555217694</v>
@@ -2822,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>0.001753219409605489</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -2837,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.009749351245135e-10</v>
+        <v>0.00111515044744109</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.000548514023082e-05</v>
+        <v>0.005749014481198049</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.477371790024223e-06</v>
+        <v>0.0003155203245473572</v>
       </c>
       <c r="AH12" t="n">
         <v>0.000321834</v>
@@ -2867,13 +2891,13 @@
         <v>0.002094222</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.002354848695106401</v>
+        <v>0.003046040551139273</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>F17_T</t>
+          <t>F17__to__T101_Evaporator__T</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2949,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.001753219409605489</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2964,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.009749351245135e-10</v>
+        <v>0.00111515044744109</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.000548514023082e-05</v>
+        <v>0.005749014481198049</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.477371790024223e-06</v>
+        <v>0.0003155203245473572</v>
       </c>
       <c r="AH13" t="n">
         <v>0.000321834</v>
@@ -2994,13 +3018,13 @@
         <v>0.002094222</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.002354848695106401</v>
+        <v>0.003046040551139273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>F18</t>
+          <t>F17__to__T101_Evaporator__p</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3049,19 +3073,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.105938000000001e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.006234</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02657736882162038</v>
+        <v>0.4649769364799998</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.910221885967431</v>
+        <v>8.840242074759999</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3076,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>0.001753219409605489</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01328868441081019</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -3091,43 +3115,43 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01014220180805392</v>
+        <v>0.00111515044744109</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.00762861451485929</v>
+        <v>0.005749014481198049</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0004000936282099758</v>
+        <v>0.0003155203245473572</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>0.000321834</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>0.01255454</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>0.002529914</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>0.000366416</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.000212478</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.008544556</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.002094222</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0007161623895048602</v>
+        <v>0.003046040551139273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F18_T</t>
+          <t>F18</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3182,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02657736882162038</v>
+        <v>0.02653403066081073</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.910221885967431</v>
+        <v>2.905476357358775</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3203,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>5.455841262169692e-05</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01328868441081019</v>
+        <v>0.01326701533040536</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -3218,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01014220180805392</v>
+        <v>0.01012824934581957</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.00762861451485929</v>
+        <v>0.001909605518801831</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0004000936282099758</v>
+        <v>8.805067545264276e-05</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -3248,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0007161623895048602</v>
+        <v>8.563444726342646e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>F19</t>
+          <t>F18__to__T102_Evaporator__T</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3303,19 +3327,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.105938000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.006234</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1859907745919999</v>
+        <v>0.02653403066081073</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.326036311214</v>
+        <v>2.905476357358775</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -3330,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>5.455841262169692e-05</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.01326701533040536</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -3345,86 +3369,86 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>6.009749351245135e-10</v>
+        <v>0.01012824934581957</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.000548514023082e-05</v>
+        <v>0.001909605518801831</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.477371790024223e-06</v>
+        <v>8.805067545264276e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.000321834</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.01255454</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.002529914</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.000366416</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.000212478</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.008544556</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.002094222</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.002354848695106401</v>
+        <v>8.563444726342646e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>F1_T</t>
+          <t>F18__to__T102_Evaporator__p</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.810614973</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00765862</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.000403571</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000321834</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004272278</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002094222</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00627727</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001264957</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000183208</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.000106239</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003139914</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.013807779</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.002438652</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0005529690000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -3433,16 +3457,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.131325068</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.02653403066081073</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.905476357358775</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -3457,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>5.455841262169692e-05</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.01326701533040536</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -3472,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>0.01012824934581957</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.001909605518801831</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>8.805067545264276e-05</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -3502,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>8.563444726342646e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F19</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3557,19 +3581,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.105938e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.006234000000000017</v>
       </c>
       <c r="S18" t="n">
-        <v>2.936403</v>
+        <v>0.1591516146790932</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>6.571934</v>
+        <v>6.734116997855796</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3584,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.001753219409605489</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -3599,86 +3623,86 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.001115150447441093</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.005749014481198023</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.0003155203245473574</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>0.000321834</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>0.01255454</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>0.002529913999999994</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>0.0003664160000000014</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.0002124780000000003</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>0.008544555999999981</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>0.002094222000000007</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>0.003046040551139273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F20</t>
+          <t>F1__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.810614973</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.00765862</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.000403571</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.000321834</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.004272278</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.002094222</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.00627727</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.001264957</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.000183208</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.000106239</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.003139914</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.013807779</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.002438652</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.0005529690000000001</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3687,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.131325068</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2789861618879999</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>7.514205763545999</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3762,7 +3786,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F21</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3817,13 +3841,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01063094752864815</v>
+        <v>2.936403</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4365332828951147</v>
+        <v>6.571934</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3847,19 +3871,19 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01328868441081019</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.006644342205405094</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.01014220180805392</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.00762861451485929</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0004000936282099758</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -3883,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.0007161623895048602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F22</t>
+          <t>F20</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3944,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01594642129297223</v>
+        <v>0.3058253218009066</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.473688603072317</v>
+        <v>2.106125076904203</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4016,7 +4040,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F23</t>
+          <t>F21</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4071,13 +4095,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.2949325831809722</v>
+        <v>0.009242728895215591</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>9.987894366618317</v>
+        <v>2.227294425657063</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4092,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>5.455841262169692e-05</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -4101,19 +4125,19 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>0.01326701533040536</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>0.006633507665202681</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>0.01012824934581957</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.00190960551880183</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>8.805067545264271e-05</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -4137,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>8.56344472634264e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F2_B</t>
+          <t>F22</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4198,13 +4222,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.01729130176559514</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.034165</v>
+        <v>0.6781819317017121</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4270,7 +4294,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>F2_B_T</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4325,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.3231166235665017</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.034165</v>
+        <v>2.784307008605916</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -4397,7 +4421,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F2_M</t>
+          <t>F2_B</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4452,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.936403</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>6.571934</v>
+        <v>1.034165</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -4524,7 +4548,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F2_T</t>
+          <t>F2_B__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4579,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.936403</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.571934</v>
+        <v>1.034165</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -4651,7 +4675,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F2_M</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4688,16 +4712,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.013807779</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.002438652</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.00054190962</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -4706,19 +4730,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.936403</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3141288440108</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>6.571934</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.4428081295092</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -4778,7 +4802,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F2__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4830,16 +4854,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.125091068</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.936403</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>6.571934</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4905,7 +4929,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4942,37 +4966,37 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.013807779</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.002438652</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.00054190962</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.105938000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.006234</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.4649769364799998</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.3141288440108</v>
       </c>
       <c r="U29" t="n">
-        <v>8.840242074759999</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>0.4428081295092</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4996,43 +5020,43 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.810614973</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.00765862</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.000403571</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.000321834</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.01255454</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.002529914</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.000366416</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.000212478</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.008544556</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.002094222</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.003139914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F5_T</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5081,19 +5105,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.105938000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.006234</v>
+        <v>0.125091068</v>
       </c>
       <c r="S30" t="n">
-        <v>0.4649769364799998</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>8.840242074759999</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -5123,43 +5147,43 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.810614973</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.00765862</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.000403571</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.000321834</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.01255454</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.002529914</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.000366416</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.000212478</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.008544556</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.002094222</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.003139914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5286,7 +5310,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5335,19 +5359,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.105938000000001e-05</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.006234</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.4649769364799998</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>8.840242074759999</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -5362,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.092921471840599</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>3.9870310824694</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -5377,43 +5401,43 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.000761172245329967</v>
+        <v>0.810614973</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.090867340845394e-15</v>
+        <v>0.00765862</v>
       </c>
       <c r="AG32" t="n">
-        <v>4.855408239733705e-23</v>
+        <v>0.000403571</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>0.000321834</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>0.01255454</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>0.002529914</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>0.000366416</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>0.000212478</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>0.008544556</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>0.002094222</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.34059973976696e-05</v>
+        <v>0.003139914</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5504,13 +5528,13 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.811376144644355</v>
+        <v>0.0007601251130438557</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.00762861451486886</v>
+        <v>2.275638703589002e-15</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0004000936282099758</v>
+        <v>1.068554820579543e-23</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -5534,133 +5558,260 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.0008184713022912688</v>
+        <v>3.994490868902459e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.091168252430993</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3.9870310824694</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.8102599476656027</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.001909605518804226</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>8.805067545264276e-05</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>9.786793972963024e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>F9</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.02657736882162038</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.910221885967431</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.01328868441081019</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.02653403066081073</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.905476357358775</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.01326701533040536</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5675,7 +5826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6096,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1858302674601927</v>
+        <v>0.1856175748016156</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6779179213851614</v>
+        <v>0.6782639098416166</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -6111,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1362344154925437</v>
+        <v>0.1361164342251536</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.627081131875908e-15</v>
+        <v>4.075011081721478e-16</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.69019735766086e-24</v>
+        <v>1.913472788286245e-24</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -6141,13 +6292,13 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.739566210062778e-05</v>
+        <v>2.081131613853933e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>F10_T</t>
+          <t>F10__to__X103_Final_Strip__T</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6223,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1858302674601927</v>
+        <v>0.1856175748016156</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6779179213851614</v>
+        <v>0.6782639098416166</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -6238,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1362344154925437</v>
+        <v>0.1361164342251536</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.627081131875908e-15</v>
+        <v>4.075011081721478e-16</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.69019735766086e-24</v>
+        <v>1.913472788286245e-24</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -6268,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.739566210062778e-05</v>
+        <v>2.081131613853933e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6401,7 +6552,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F12</t>
+          <t>F11__to__X103_Final_Strip__T</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6456,13 +6607,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001478897313173114</v>
+        <v>0.0001801801801801802</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8206401190797608</v>
+        <v>0.9998198198198198</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -6492,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1791969591608498</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -6522,13 +6673,13 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.503202807206994e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F13</t>
+          <t>F12</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6583,13 +6734,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.0001479123894166255</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.8207658488728546</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -6604,10 +6755,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2151086144428975</v>
+        <v>1.523760214868338e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7847267658182169</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -6619,13 +6770,13 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0001576987255981769</v>
+        <v>0.1790692025020123</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.883434666739543e-15</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.005937481762595e-23</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -6649,13 +6800,13 @@
         <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.921013285626987e-06</v>
+        <v>1.798633567761081e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F13_T</t>
+          <t>F13</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6731,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2151086144428975</v>
+        <v>0.2148200865056907</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7847267658182169</v>
+        <v>0.7850215446704494</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -6746,13 +6897,13 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0001576987255981769</v>
+        <v>0.0001575409393010775</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.883434666739543e-15</v>
+        <v>4.71641118966391e-16</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.005937481762595e-23</v>
+        <v>2.214650288994595e-24</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -6776,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.921013285626987e-06</v>
+        <v>8.278845583610915e-07</v>
       </c>
     </row>
     <row r="9">
@@ -6858,10 +7009,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2151086144428975</v>
+        <v>0.2148200865056907</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7847267658182168</v>
+        <v>0.7850215446704494</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -6873,13 +7024,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0001576987255981769</v>
+        <v>0.0001575409393010775</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.883434666739543e-15</v>
+        <v>4.71641118966391e-16</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.005937481762595e-23</v>
+        <v>2.214650288994595e-24</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -6903,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.921013285626987e-06</v>
+        <v>8.278845583610915e-07</v>
       </c>
     </row>
     <row r="10">
@@ -6985,10 +7136,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2151086144428975</v>
+        <v>0.2148200865056907</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7847267658182168</v>
+        <v>0.7850215446704494</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -7000,13 +7151,13 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0001576987255981769</v>
+        <v>0.0001575409393010775</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.883434666739543e-15</v>
+        <v>4.71641118966391e-16</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.005937481762595e-23</v>
+        <v>2.214650288994595e-24</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -7030,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.921013285626987e-06</v>
+        <v>8.278845583610915e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7112,10 +7263,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.215144031397168</v>
+        <v>0.220612089599691</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7848559686028319</v>
+        <v>0.779387910400309</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -7212,19 +7363,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.184027406147912e-06</v>
+        <v>1.182812917659729e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0006674177801943758</v>
+        <v>0.0006667331919773752</v>
       </c>
       <c r="S12" t="n">
-        <v>0.04978085896488014</v>
+        <v>0.04972979741019755</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9464444565154382</v>
+        <v>0.9454736631949676</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -7239,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>0.000187508754123028</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -7254,43 +7405,43 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.434092992513023e-11</v>
+        <v>0.0001192665732045872</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.212414867813311e-06</v>
+        <v>0.0006148634545674253</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.722906257633157e-07</v>
+        <v>3.374524753275535e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.445584438098761e-05</v>
+        <v>3.442050210247779e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.001344100612473773</v>
+        <v>0.001342721932628751</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0002708549223552573</v>
+        <v>0.0002705770992377685</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.922883435157241e-05</v>
+        <v>3.918859628995539e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.274809032726028e-05</v>
+        <v>2.272475700432607e-05</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0009147880330873492</v>
+        <v>0.0009138497106046571</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0002242093356551534</v>
+        <v>0.0002239793581599684</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0002521122696152609</v>
+        <v>0.0003257774044840568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>F17_T</t>
+          <t>F17__to__T101_Evaporator__T</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7339,19 +7490,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.184027406147912e-06</v>
+        <v>1.182812917659729e-06</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0006674177801943758</v>
+        <v>0.0006667331919773752</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04978085896488014</v>
+        <v>0.04972979741019755</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9464444565154382</v>
+        <v>0.9454736631949676</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -7366,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.000187508754123028</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -7381,43 +7532,43 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.434092992513023e-11</v>
+        <v>0.0001192665732045872</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.212414867813311e-06</v>
+        <v>0.0006148634545674253</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.722906257633157e-07</v>
+        <v>3.374524753275535e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.445584438098761e-05</v>
+        <v>3.442050210247779e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.001344100612473773</v>
+        <v>0.001342721932628751</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0002708549223552573</v>
+        <v>0.0002705770992377685</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.922883435157241e-05</v>
+        <v>3.918859628995539e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.274809032726028e-05</v>
+        <v>2.272475700432607e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0009147880330873492</v>
+        <v>0.0009138497106046571</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0002242093356551534</v>
+        <v>0.0002239793581599684</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0002521122696152609</v>
+        <v>0.0003257774044840568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>F18</t>
+          <t>F17__to__T101_Evaporator__p</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7466,19 +7617,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.182812917659729e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.0006667331919773752</v>
       </c>
       <c r="S14" t="n">
-        <v>0.008951698386922554</v>
+        <v>0.04972979741019755</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9802109733680198</v>
+        <v>0.9454736631949676</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -7493,13 +7644,13 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>0.000187508754123028</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.004475849193461277</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -7508,43 +7659,43 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.003416061694231475</v>
+        <v>0.0001192665732045872</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.002569443826642747</v>
+        <v>0.0006148634545674253</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0001347581662542799</v>
+        <v>3.374524753275535e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>3.442050210247779e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>0.001342721932628751</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>0.0002705770992377685</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>3.918859628995539e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>2.272475700432607e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>0.0009138497106046571</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>0.0002239793581599684</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.0002412153644679112</v>
+        <v>0.0003257774044840568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>F18_T</t>
+          <t>F18</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7599,13 +7750,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.008951698386922554</v>
+        <v>0.008971645098410487</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9802109733680198</v>
+        <v>0.9823951382759485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -7620,13 +7771,13 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1.844720545595195e-05</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004475849193461277</v>
+        <v>0.004485822549205243</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -7635,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.003416061694231475</v>
+        <v>0.003424547885712175</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.002569443826642747</v>
+        <v>0.0006456728422327298</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0001347581662542799</v>
+        <v>2.977155717254675e-05</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -7665,13 +7816,13 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0002412153644679112</v>
+        <v>2.895458586247586e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>F19</t>
+          <t>F18__to__T102_Evaporator__T</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -7720,19 +7871,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.147606305030582e-06</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.004028994184625232</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1202046437640536</v>
+        <v>0.008971645098410487</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8570087562533043</v>
+        <v>0.9823951382759485</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -7747,13 +7898,13 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1.844720545595195e-05</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>0.004485822549205243</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -7762,86 +7913,86 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>3.884062429775732e-10</v>
+        <v>0.003424547885712175</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.939235244415284e-05</v>
+        <v>0.0006456728422327298</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.247403067017554e-06</v>
+        <v>2.977155717254675e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0002079992483822068</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.008113918615759521</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.001635067178954437</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.000236812308815149</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0001373231675265961</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.005522291696215052</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.001353482236014473</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.001521923596127046</v>
+        <v>2.895458586247586e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>F1_T</t>
+          <t>F18__to__T102_Evaporator__p</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.823409476689427</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007779501361817528</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004099408436624433</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000326913731361418</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004339710355006916</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002127276572143314</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006376348547583809</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001284922702019504</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001860997001412612</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001079158445226598</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003189473461144426</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0140257168437885</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.002477142951993837</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0005616968969008617</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -7850,16 +8001,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1333978634984866</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.008971645098410487</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.9823951382759485</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -7874,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1.844720545595195e-05</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.004485822549205243</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -7889,13 +8040,13 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>0.003424547885712175</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.0006456728422327298</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.977155717254675e-05</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -7919,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>2.895458586247586e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>F19</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7974,19 +8125,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.594003196264637e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.0008985147382144182</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3088240351598813</v>
+        <v>0.02293873458450225</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.6911759648401188</v>
+        <v>0.9705972684365812</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -8001,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.0002526938528800302</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -8016,86 +8167,86 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.0001607281219685952</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.0008286131282586663</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>4.54763653853058e-05</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>4.638636385282295e-05</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>0.001809502602101767</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>0.000364639880560632</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>5.281202699993176e-05</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>3.062473765581054e-05</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>0.001231538257539044</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>0.0003018430112436439</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>0.0004390298890595762</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F20</t>
+          <t>F1__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.823409476689427</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.007779501361817528</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.0004099408436624433</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.000326913731361418</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.004339710355006916</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.002127276572143314</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.006376348547583809</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.001284922702019504</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.0001860997001412612</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.0001079158445226598</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.003189473461144426</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.0140257168437885</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.002477142951993837</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.0005616968969008617</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -8104,16 +8255,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.1333978634984866</v>
       </c>
       <c r="S19" t="n">
-        <v>0.03579870283670235</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9642012971632977</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -8179,7 +8330,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F21</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -8234,13 +8385,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.02187508297273174</v>
+        <v>0.3088240351598813</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8982455945677971</v>
+        <v>0.6911759648401188</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -8264,19 +8415,19 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02734385371591467</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01367192685795733</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.02086940091459389</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01569724382796883</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0008232644635268397</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -8300,13 +8451,13 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.001473632679509685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>F22</t>
+          <t>F20</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -8361,13 +8512,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.006405124099279423</v>
+        <v>0.1267958586400008</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9935948759007206</v>
+        <v>0.8732041413599994</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -8433,7 +8584,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F23</t>
+          <t>F21</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -8488,13 +8639,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0286820525737554</v>
+        <v>0.00407401309646697</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9713179474262446</v>
+        <v>0.9817475728961211</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -8509,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>2.404827514288544e-05</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -8518,19 +8669,19 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>0.005847839401097004</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>0.002923919700548502</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>0.004464333093282782</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.0008417165515599373</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>3.881100582020932e-05</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -8554,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>3.774597996058301e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F2_B</t>
+          <t>F22</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -8615,13 +8766,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.02486264162804472</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0.9751373583719553</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -8687,7 +8838,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>F2_B_T</t>
+          <t>F23</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -8742,13 +8893,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.1039821607267011</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0.8960178392732988</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -8814,7 +8965,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F2_M</t>
+          <t>F2_B</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -8869,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3088240351598813</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.6911759648401188</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -8941,7 +9092,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>F2_T</t>
+          <t>F2_B__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -8996,13 +9147,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3088240351598813</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.6911759648401188</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -9068,7 +9219,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>F2_M</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -9105,16 +9256,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01784584108553747</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.003151831735931473</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0007003901902865046</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -9123,19 +9274,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.3088240351598813</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4059953038501215</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.6911759648401188</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.5723066331381231</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -9195,7 +9346,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F2__to__R101_Dissolver__T</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -9247,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.3088240351598813</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.6911759648401188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -9322,7 +9473,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -9359,37 +9510,37 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.01784584108553747</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.003151831735931473</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.0007003901902865046</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.088531820106949e-06</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.0006135884078986986</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04576587394359599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.4059953038501215</v>
       </c>
       <c r="U29" t="n">
-        <v>0.8701106929886231</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>0.5723066331381231</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -9413,43 +9564,43 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.07978568346196929</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.0007538082214470855</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>3.972192610909299e-05</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>3.167687065570577e-05</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.001235694611886514</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.0002490096091402997</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>3.606490376461494e-05</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>2.091338430117095e-05</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.0008410074610589145</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.0002061261377552821</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.0003090495399741474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F5_T</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -9498,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.088531820106949e-06</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0006135884078986986</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>0.04576587394359599</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.8701106929886231</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -9540,43 +9691,43 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.07978568346196929</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.0007538082214470855</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>3.972192610909299e-05</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>3.167687065570577e-05</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.001235694611886514</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.0002490096091402997</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.606490376461494e-05</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
-        <v>2.091338430117095e-05</v>
+        <v>0</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.0008410074610589145</v>
+        <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.0002061261377552821</v>
+        <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.0003090495399741474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -9703,7 +9854,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -9752,19 +9903,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.088531820106949e-06</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.0006135884078986986</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>0.04576587394359599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.8701106929886231</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -9779,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.2151103850136858</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7847332249472103</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -9794,43 +9945,43 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0001498150223720205</v>
+        <v>0.07978568346196929</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.789277660090484e-15</v>
+        <v>0.0007538082214470855</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.556484731595344e-24</v>
+        <v>3.972192610909299e-05</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>3.167687065570577e-05</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>0.001235694611886514</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>0.0002490096091402997</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>3.606490376461494e-05</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>2.091338430117095e-05</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>0.0008410074610589145</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>0.0002061261377552821</v>
       </c>
       <c r="AO32" t="n">
-        <v>6.575016730046417e-06</v>
+        <v>0.0003090495399741474</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -9906,10 +10057,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.1852354055820158</v>
+        <v>0.2151116745895359</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.6757478361053167</v>
+        <v>0.7847379293831008</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -9921,13 +10072,13 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.1375172810720383</v>
+        <v>0.0001496098211786913</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.001292946968377141</v>
+        <v>4.478971864880572e-16</v>
       </c>
       <c r="AG33" t="n">
-        <v>6.781045793477113e-05</v>
+        <v>2.103157662905822e-24</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -9951,133 +10102,260 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.0001387198143173418</v>
+        <v>7.862061841415998e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.1852403191614288</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.6768515383193628</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.1375523994351099</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.000324180927173824</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.494777289101749e-05</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.661438403362518e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>F9</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>0.009009009009009009</v>
       </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>0.9864864864864865</v>
       </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
         <v>0.004504504504504504</v>
       </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stream_table.xlsx
+++ b/stream_table.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.932241463753819</v>
+        <v>5.932241463739436</v>
       </c>
       <c r="F3" t="n">
-        <v>1295.707460969491</v>
+        <v>1295.70746096677</v>
       </c>
     </row>
     <row r="4">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.932241463753819</v>
+        <v>5.932241463739436</v>
       </c>
       <c r="F4" t="n">
-        <v>1295.707460969491</v>
+        <v>1295.70746096677</v>
       </c>
     </row>
     <row r="5">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.472095609434117</v>
+        <v>9.472095609433778</v>
       </c>
       <c r="F5" t="n">
-        <v>202.7721891378996</v>
+        <v>202.7721891379177</v>
       </c>
     </row>
     <row r="6">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9.472095609434117</v>
+        <v>9.472095609433778</v>
       </c>
       <c r="F6" t="n">
-        <v>202.7721891378996</v>
+        <v>202.7721891379177</v>
       </c>
     </row>
     <row r="7">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9.472095609434117</v>
+        <v>9.472095609433778</v>
       </c>
       <c r="F7" t="n">
-        <v>202.7721891378996</v>
+        <v>202.7721891379177</v>
       </c>
     </row>
     <row r="8">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5976981317514177</v>
+        <v>0.5976981317499797</v>
       </c>
       <c r="F8" t="n">
-        <v>12.86729084201967</v>
+        <v>12.86729084199292</v>
       </c>
     </row>
     <row r="9">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5976981317514177</v>
+        <v>0.5976981317499797</v>
       </c>
       <c r="F9" t="n">
-        <v>12.86729084201967</v>
+        <v>12.86729084199292</v>
       </c>
     </row>
     <row r="10">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5976981317514177</v>
+        <v>0.5976981317499797</v>
       </c>
       <c r="F10" t="n">
-        <v>12.86729084201967</v>
+        <v>12.86729084199292</v>
       </c>
     </row>
     <row r="11">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01764063823002691</v>
+        <v>0.01764063822997675</v>
       </c>
       <c r="F11" t="n">
-        <v>4.698019492144307</v>
+        <v>4.69801949213095</v>
       </c>
     </row>
     <row r="12">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.292723108695137e-05</v>
+        <v>9.292723108654604e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02474819432861472</v>
+        <v>0.02474819432850677</v>
       </c>
     </row>
     <row r="13">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.01840863390824489</v>
+        <v>0.01840863390819256</v>
       </c>
       <c r="F13" t="n">
-        <v>4.902550565175964</v>
+        <v>4.902550565162028</v>
       </c>
     </row>
     <row r="14">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.698039182294134</v>
+        <v>3.698039182285167</v>
       </c>
       <c r="F14" t="n">
-        <v>66.65015797156678</v>
+        <v>66.65015797140518</v>
       </c>
     </row>
     <row r="15">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3.698039182294134</v>
+        <v>3.698039182285167</v>
       </c>
       <c r="F15" t="n">
-        <v>66.65015797156678</v>
+        <v>66.65015797140518</v>
       </c>
     </row>
     <row r="16">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.50552462854466</v>
+        <v>4.505524628535802</v>
       </c>
       <c r="F16" t="n">
-        <v>384.7669859358015</v>
+        <v>384.7669859356826</v>
       </c>
     </row>
     <row r="17">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.50552462854466</v>
+        <v>4.505524628535802</v>
       </c>
       <c r="F17" t="n">
-        <v>384.7669859358015</v>
+        <v>384.7669859356826</v>
       </c>
     </row>
     <row r="18">
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.000675068447131033</v>
+        <v>0.0006750684471292648</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1797828787030425</v>
+        <v>0.1797828787025716</v>
       </c>
     </row>
     <row r="19">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.506199696991791</v>
+        <v>4.506199696982931</v>
       </c>
       <c r="F19" t="n">
-        <v>384.9467688145045</v>
+        <v>384.9467688143852</v>
       </c>
     </row>
     <row r="20">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.124080949056162</v>
+        <v>5.124080949041671</v>
       </c>
       <c r="F20" t="n">
-        <v>977.4108501265534</v>
+        <v>977.4108501237897</v>
       </c>
     </row>
     <row r="21">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.09757177800196</v>
+        <v>2.14468733402294</v>
       </c>
       <c r="F21" t="n">
-        <v>268.0419446711122</v>
+        <v>81.93268424412737</v>
       </c>
     </row>
     <row r="22">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.142489582964407</v>
+        <v>5.142489582949864</v>
       </c>
       <c r="F22" t="n">
-        <v>982.3134006917294</v>
+        <v>982.3134006889518</v>
       </c>
     </row>
     <row r="23">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.142489582964407</v>
+        <v>5.142489582949864</v>
       </c>
       <c r="F23" t="n">
-        <v>982.3134006917294</v>
+        <v>982.3134006889518</v>
       </c>
     </row>
     <row r="24">
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2571244791482203</v>
+        <v>0.2571244791474932</v>
       </c>
       <c r="F24" t="n">
-        <v>49.11567003458647</v>
+        <v>49.1156700344476</v>
       </c>
     </row>
     <row r="25">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.006508013875696575</v>
+        <v>0.006508013875697122</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1172418699706738</v>
+        <v>0.1172418699706837</v>
       </c>
     </row>
     <row r="26">
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.885365103816186</v>
+        <v>4.88536510380237</v>
       </c>
       <c r="F26" t="n">
-        <v>933.1977306571429</v>
+        <v>933.1977306545042</v>
       </c>
     </row>
     <row r="27">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2572069756534415</v>
+        <v>0.2572069754071994</v>
       </c>
       <c r="F27" t="n">
-        <v>49.13261901760063</v>
+        <v>49.13261897056049</v>
       </c>
     </row>
     <row r="28">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.489736247664144</v>
+        <v>9.489736247663755</v>
       </c>
       <c r="F28" t="n">
-        <v>207.4702086300439</v>
+        <v>207.4702086300487</v>
       </c>
     </row>
     <row r="29">
@@ -1121,10 +1121,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.5977910589825047</v>
+        <v>0.5977910589810662</v>
       </c>
       <c r="F29" t="n">
-        <v>12.89203903634828</v>
+        <v>12.89203903632143</v>
       </c>
     </row>
     <row r="30">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>7.029154200406582</v>
+        <v>7.029154200406381</v>
       </c>
       <c r="F30" t="n">
-        <v>144.9972122880508</v>
+        <v>144.997212288074</v>
       </c>
     </row>
     <row r="31">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.631989263638639</v>
+        <v>9.631989263638223</v>
       </c>
       <c r="F31" t="n">
-        <v>305.6496123754537</v>
+        <v>305.6496123754422</v>
       </c>
     </row>
     <row r="32">
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.442941409027535</v>
+        <v>2.442941409027398</v>
       </c>
       <c r="F32" t="n">
-        <v>57.77497684984883</v>
+        <v>57.7749768498437</v>
       </c>
     </row>
     <row r="33">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.4600443563665531</v>
+        <v>0.4600443563654485</v>
       </c>
       <c r="F33" t="n">
-        <v>10.22585909687647</v>
+        <v>10.22585909685612</v>
       </c>
     </row>
     <row r="34">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1389908008809204</v>
+        <v>0.1389908008805837</v>
       </c>
       <c r="F34" t="n">
-        <v>2.660127372654548</v>
+        <v>2.660127372648103</v>
       </c>
     </row>
     <row r="35">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.581932209908455</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="F35" t="n">
-        <v>60.43510422250337</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
     <row r="36">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.581932209908455</v>
+        <v>2.581932209907982</v>
       </c>
       <c r="F36" t="n">
-        <v>60.43510422250337</v>
+        <v>60.4351042224918</v>
       </c>
     </row>
     <row r="37">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.17728936447994</v>
+        <v>1.177289364479152</v>
       </c>
       <c r="F37" t="n">
-        <v>324.7818437613914</v>
+        <v>324.7818437614179</v>
       </c>
     </row>
     <row r="38">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.17728936447994</v>
+        <v>1.177289364479152</v>
       </c>
       <c r="F38" t="n">
-        <v>324.7818437613914</v>
+        <v>324.7818437614179</v>
       </c>
     </row>
     <row r="39">
@@ -1361,10 +1361,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.32823526406472</v>
+        <v>3.328235264056651</v>
       </c>
       <c r="F39" t="n">
-        <v>59.98514217441011</v>
+        <v>59.98514217426467</v>
       </c>
     </row>
     <row r="40">
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="F40" t="n">
-        <v>230.8977171302632</v>
+        <v>230.8977171302943</v>
       </c>
     </row>
     <row r="41">
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="F41" t="n">
-        <v>230.8977171302632</v>
+        <v>230.8977171302943</v>
       </c>
     </row>
     <row r="42">
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2691435545137804</v>
+        <v>0.2691435545138166</v>
       </c>
       <c r="F42" t="n">
-        <v>226.5916894015972</v>
+        <v>226.5916894016277</v>
       </c>
     </row>
     <row r="43">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1345717772568902</v>
+        <v>0.1345717772569083</v>
       </c>
       <c r="F43" t="n">
-        <v>4.306027728665973</v>
+        <v>4.306027728666552</v>
       </c>
     </row>
     <row r="44">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.388313945746149</v>
+        <v>2.388313945745524</v>
       </c>
       <c r="F44" t="n">
-        <v>93.87059576181045</v>
+        <v>93.87059576180603</v>
       </c>
     </row>
     <row r="45">
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.388313945746149</v>
+        <v>2.388313945745524</v>
       </c>
       <c r="F45" t="n">
-        <v>93.87059576181045</v>
+        <v>93.87059576180603</v>
       </c>
     </row>
     <row r="46">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.467538165625633</v>
+        <v>2.570568549995897</v>
       </c>
       <c r="F47" t="n">
-        <v>181.3702467441379</v>
+        <v>104.3582919498543</v>
       </c>
     </row>
     <row r="48">
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.662495813477712</v>
+        <v>3.669566341355428</v>
       </c>
       <c r="F48" t="n">
-        <v>97.22164118041312</v>
+        <v>140.1870639088393</v>
       </c>
     </row>
     <row r="49">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>9.631989263638639</v>
+        <v>9.631989263638223</v>
       </c>
       <c r="F49" t="n">
-        <v>305.6496123754537</v>
+        <v>305.6496123754422</v>
       </c>
     </row>
     <row r="50">
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.631989263638639</v>
+        <v>9.631989263638223</v>
       </c>
       <c r="F50" t="n">
-        <v>305.6496123754537</v>
+        <v>305.6496123754422</v>
       </c>
     </row>
     <row r="51">
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.378303020897155</v>
+        <v>3.268202108648651</v>
       </c>
       <c r="F51" t="n">
-        <v>24.83012892146224</v>
+        <v>58.87666098730544</v>
       </c>
     </row>
     <row r="52">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.501955284535389</v>
+        <v>3.391854372286896</v>
       </c>
       <c r="F52" t="n">
-        <v>27.05772445090504</v>
+        <v>61.10425651674843</v>
       </c>
     </row>
     <row r="53">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.298481419719325</v>
+        <v>8.298481419710155</v>
       </c>
       <c r="F54" t="n">
-        <v>214.2908421587239</v>
+        <v>214.2908421585625</v>
       </c>
     </row>
     <row r="55">
@@ -1745,10 +1745,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6.279904760865971</v>
+        <v>6.279904760856532</v>
       </c>
       <c r="F55" t="n">
-        <v>127.0810636202872</v>
+        <v>127.081063620114</v>
       </c>
     </row>
     <row r="56">
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2.018576658853353</v>
+        <v>2.018576658853624</v>
       </c>
       <c r="F56" t="n">
-        <v>87.20977853843674</v>
+        <v>87.20977853844848</v>
       </c>
     </row>
     <row r="57">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>12.17459970892752</v>
+        <v>12.17459970892824</v>
       </c>
       <c r="F57" t="n">
-        <v>322.7528025940616</v>
+        <v>322.752802594084</v>
       </c>
     </row>
     <row r="58">
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>18.45450446979349</v>
+        <v>18.45450446978477</v>
       </c>
       <c r="F58" t="n">
-        <v>449.8338662143488</v>
+        <v>449.833866214198</v>
       </c>
     </row>
     <row r="59">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.45450446979349</v>
+        <v>18.45450446978477</v>
       </c>
       <c r="F59" t="n">
-        <v>449.8338662143488</v>
+        <v>449.833866214198</v>
       </c>
     </row>
     <row r="60">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.694436878313821</v>
+        <v>12.6402507944064</v>
       </c>
       <c r="F60" t="n">
-        <v>84.5702803628235</v>
+        <v>227.7141180612313</v>
       </c>
     </row>
     <row r="61">
@@ -1889,10 +1889,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>13.76006759147967</v>
+        <v>5.814253675378368</v>
       </c>
       <c r="F61" t="n">
-        <v>365.2635858515253</v>
+        <v>222.1197481529667</v>
       </c>
     </row>
     <row r="62">
@@ -1913,64 +1913,64 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.0253298816309</v>
+        <v>11.02532988163151</v>
       </c>
       <c r="F62" t="n">
-        <v>198.6213178175807</v>
+        <v>198.6213178175917</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>F39-T</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>313.15</v>
+        <v>373.15</v>
       </c>
       <c r="C63" t="n">
         <v>100000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.0253298816309</v>
+        <v>0.125091068</v>
       </c>
       <c r="F63" t="n">
-        <v>198.6213178175807</v>
+        <v>11.411307587232</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F40</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>373.15</v>
+        <v>298.15</v>
       </c>
       <c r="C64" t="n">
         <v>100000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.125091068</v>
+        <v>2.135616222</v>
       </c>
       <c r="F64" t="n">
-        <v>11.411307587232</v>
+        <v>61.61389479908208</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1985,20 +1985,20 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.135616222</v>
+        <v>4.927918194993625</v>
       </c>
       <c r="F65" t="n">
-        <v>61.61389479908208</v>
+        <v>178.7191031108034</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>F41-T</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>298.15</v>
+        <v>313.15</v>
       </c>
       <c r="C66" t="n">
         <v>100000</v>
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.927918194993353</v>
+        <v>4.927918194993625</v>
       </c>
       <c r="F66" t="n">
-        <v>178.7191031107917</v>
+        <v>178.7191031108034</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>F41-T</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2033,20 +2033,20 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4.927918194993353</v>
+        <v>1.860323934146457</v>
       </c>
       <c r="F67" t="n">
-        <v>178.7191031107917</v>
+        <v>54.58761833431112</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>F42</t>
+          <t>F42-T</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>313.15</v>
+        <v>673.15</v>
       </c>
       <c r="C68" t="n">
         <v>100000</v>
@@ -2057,20 +2057,20 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.860323934146448</v>
+        <v>1.860323934146457</v>
       </c>
       <c r="F68" t="n">
-        <v>54.5876183343108</v>
+        <v>54.58761833431112</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>F42-T</t>
+          <t>F43</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>673.15</v>
+        <v>298.15</v>
       </c>
       <c r="C69" t="n">
         <v>100000</v>
@@ -2081,20 +2081,20 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.860323934146448</v>
+        <v>0.09978954609402255</v>
       </c>
       <c r="F69" t="n">
-        <v>54.5876183343108</v>
+        <v>1.699515759527298</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>F43</t>
+          <t>F43-T</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>298.15</v>
+        <v>673.15</v>
       </c>
       <c r="C70" t="n">
         <v>100000</v>
@@ -2105,16 +2105,16 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.09978954609401415</v>
+        <v>0.09978954609402255</v>
       </c>
       <c r="F70" t="n">
-        <v>1.699515759527155</v>
+        <v>1.699515759527298</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>F43-T</t>
+          <t>F44</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2129,20 +2129,20 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.09978954609401415</v>
+        <v>1.990849965748224</v>
       </c>
       <c r="F71" t="n">
-        <v>1.699515759527155</v>
+        <v>56.28713409383841</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>F44</t>
+          <t>F44-T</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>673.15</v>
+        <v>323.15</v>
       </c>
       <c r="C72" t="n">
         <v>100000</v>
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.990849965748203</v>
+        <v>1.990849965748224</v>
       </c>
       <c r="F72" t="n">
-        <v>56.28713409383796</v>
+        <v>56.28713409383841</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>F44-T</t>
+          <t>F45</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2173,20 +2173,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.990849965748203</v>
+        <v>0.1301602775139424</v>
       </c>
       <c r="F73" t="n">
-        <v>56.28713409383796</v>
+        <v>2.344837399413673</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>F45</t>
+          <t>F45_R</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2201,16 +2201,16 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1301602775139315</v>
+        <v>0.1236522636382453</v>
       </c>
       <c r="F74" t="n">
-        <v>2.344837399413476</v>
+        <v>2.227595529442989</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>F45_R</t>
+          <t>F46</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2221,20 +2221,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1236522636382349</v>
+        <v>1.860689688234281</v>
       </c>
       <c r="F75" t="n">
-        <v>2.227595529442802</v>
+        <v>53.94229669442474</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>F46</t>
+          <t>F47</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2245,20 +2245,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.860689688234272</v>
+        <v>12.59686918934608</v>
       </c>
       <c r="F76" t="n">
-        <v>53.94229669442448</v>
+        <v>226.9325984460697</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>F47</t>
+          <t>F47-T</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2273,16 +2273,16 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.59686918934602</v>
+        <v>12.59686918934608</v>
       </c>
       <c r="F77" t="n">
-        <v>226.9325984460686</v>
+        <v>226.9325984460697</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>F47-T</t>
+          <t>F48</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2297,16 +2297,16 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>12.59686918934602</v>
+        <v>12.60975505681996</v>
       </c>
       <c r="F78" t="n">
-        <v>226.9325984460686</v>
+        <v>227.1520576550174</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>F48</t>
+          <t>F49</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2317,24 +2317,24 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>12.6097550568199</v>
+        <v>1.847803820760401</v>
       </c>
       <c r="F79" t="n">
-        <v>227.1520576550162</v>
+        <v>53.72283748547709</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>F49</t>
+          <t>F49A</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>323.15</v>
+        <v>298.15</v>
       </c>
       <c r="C80" t="n">
         <v>100000</v>
@@ -2345,16 +2345,16 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1.847803820760393</v>
+        <v>1.847803820760401</v>
       </c>
       <c r="F80" t="n">
-        <v>53.72283748547684</v>
+        <v>53.72283748547709</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>F49A</t>
+          <t>F49B</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2369,64 +2369,64 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1.847803820760393</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>53.72283748547684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>F49B</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>298.15</v>
+        <v>373.15</v>
       </c>
       <c r="C82" t="n">
         <v>100000</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>10.28355737225822</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>522.6517384058463</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F50A</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>373.15</v>
+        <v>298.15</v>
       </c>
       <c r="C83" t="n">
         <v>100000</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.28355737225864</v>
+        <v>1.847261911140401</v>
       </c>
       <c r="F83" t="n">
-        <v>522.6517384058579</v>
+        <v>53.58302480351708</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>F50A</t>
+          <t>F50B</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1.847261911140393</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>53.58302480351684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>F50B</t>
+          <t>F51A</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2474,7 +2474,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>F51A</t>
+          <t>F51B</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2489,20 +2489,20 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.0108381924</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.5610452723848225</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>F51B</t>
+          <t>F52A</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>298.15</v>
+        <v>423.15</v>
       </c>
       <c r="C87" t="n">
         <v>100000</v>
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.0108381924</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5610452723848225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>F52A</t>
+          <t>F52B</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2537,40 +2537,40 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.0108381924</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>0.5610452723848225</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>F52B</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>423.15</v>
+        <v>298.15</v>
       </c>
       <c r="C89" t="n">
         <v>100000</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.0108381924</v>
+        <v>10.28355737225822</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5610452723848225</v>
+        <v>522.6517384058463</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2585,16 +2585,16 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>10.28355737225864</v>
+        <v>5.142572077878716</v>
       </c>
       <c r="F90" t="n">
-        <v>522.6517384058579</v>
+        <v>982.3303493708531</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2609,16 +2609,16 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5.142572077893071</v>
+        <v>5.936393202473183</v>
       </c>
       <c r="F91" t="n">
-        <v>982.330349373558</v>
+        <v>1297.51187914665</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2633,34 +2633,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.936393202487567</v>
+        <v>0.5936393202473184</v>
       </c>
       <c r="F92" t="n">
-        <v>1297.511879149372</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>298.15</v>
-      </c>
-      <c r="C93" t="n">
-        <v>100000</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0.5936393202487568</v>
-      </c>
-      <c r="F93" t="n">
-        <v>11.08762085646738</v>
+        <v>11.08762085644052</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ93"/>
+  <dimension ref="A1:AQ92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3111,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.088368575714564</v>
+        <v>1.088368575711486</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.035555691043252</v>
+        <v>4.035555691031838</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -3126,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8082389024437852</v>
+        <v>0.8082389024438938</v>
       </c>
       <c r="AF3" t="n">
         <v>1.907695913285422e-24</v>
@@ -3244,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.088368575714564</v>
+        <v>1.088368575711486</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.035555691043252</v>
+        <v>4.035555691031838</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -3259,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8082389024437852</v>
+        <v>0.8082389024438938</v>
       </c>
       <c r="AF4" t="n">
         <v>1.907695913285422e-24</v>
@@ -3356,13 +3332,13 @@
         <v>0.006234</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4649769364800806</v>
+        <v>0.4649769364799905</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>8.963894338398559</v>
+        <v>8.963894338398232</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -3377,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0001049333989178391</v>
+        <v>0.0001049333989178117</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -3392,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.001118236103539278</v>
+        <v>0.001118236103612132</v>
       </c>
       <c r="AF5" t="n">
         <v>0.005749014481195774</v>
@@ -3422,7 +3398,7 @@
         <v>0.002094222</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00306761086727681</v>
+        <v>0.003067610867282763</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -3489,13 +3465,13 @@
         <v>0.006234</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4649769364800806</v>
+        <v>0.4649769364799905</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>8.963894338398559</v>
+        <v>8.963894338398232</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3510,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0001049333989178391</v>
+        <v>0.0001049333989178117</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -3525,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.001118236103539278</v>
+        <v>0.001118236103612132</v>
       </c>
       <c r="AF6" t="n">
         <v>0.005749014481195774</v>
@@ -3555,7 +3531,7 @@
         <v>0.002094222</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.00306761086727681</v>
+        <v>0.003067610867282763</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -3622,13 +3598,13 @@
         <v>0.006234</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4649769364800806</v>
+        <v>0.4649769364799905</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>8.963894338398559</v>
+        <v>8.963894338398232</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -3643,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0001049333989178391</v>
+        <v>0.0001049333989178117</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -3658,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.001118236103539278</v>
+        <v>0.001118236103612132</v>
       </c>
       <c r="AF7" t="n">
         <v>0.005749014481195774</v>
@@ -3688,7 +3664,7 @@
         <v>0.002094222</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.00306761086727681</v>
+        <v>0.003067610867282763</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3755,13 +3731,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005348101984223034</v>
+        <v>0.005348101984210075</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5856171672724222</v>
+        <v>0.5856171672710032</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -3776,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.592051125870105e-05</v>
+        <v>1.592051125866229e-05</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.002674050992111517</v>
+        <v>0.002674050992105038</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -3791,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.00202566140963345</v>
+        <v>0.002025661409633783</v>
       </c>
       <c r="AF8" t="n">
         <v>0.001909605518804226</v>
@@ -3888,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.005348101984223034</v>
+        <v>0.005348101984210075</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5856171672724222</v>
+        <v>0.5856171672710032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -3909,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.592051125870105e-05</v>
+        <v>1.592051125866229e-05</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.002674050992111517</v>
+        <v>0.002674050992105038</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -3924,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00202566140963345</v>
+        <v>0.002025661409633783</v>
       </c>
       <c r="AF9" t="n">
         <v>0.001909605518804226</v>
@@ -4021,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005348101984223034</v>
+        <v>0.005348101984210075</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5856171672724222</v>
+        <v>0.5856171672710032</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -4042,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.592051125870105e-05</v>
+        <v>1.592051125866229e-05</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.002674050992111517</v>
+        <v>0.002674050992105038</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -4057,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.00202566140963345</v>
+        <v>0.002025661409633783</v>
       </c>
       <c r="AF10" t="n">
         <v>0.001909605518804226</v>
@@ -4175,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01764063823002691</v>
+        <v>0.01764063822997675</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -4308,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.292723108695137e-05</v>
+        <v>9.292723108654604e-05</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -4441,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01840863390824489</v>
+        <v>0.01840863390819256</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -4553,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0006663133661791232</v>
+        <v>0.0006663133661775077</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.697372868927955</v>
+        <v>3.69737286891899</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -4686,13 +4662,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0006663133661791232</v>
+        <v>0.0006663133661775077</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3.697372868927955</v>
+        <v>3.69737286891899</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -4819,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0006663133661791232</v>
+        <v>0.0006663133661775077</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3.697372868927955</v>
+        <v>3.69737286891899</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -4840,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.398480144656394e-06</v>
+        <v>3.398480144648209e-06</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -4855,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -4952,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0006663133661791232</v>
+        <v>0.0006663133661775077</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.697372868927955</v>
+        <v>3.69737286891899</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -4973,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.398480144656394e-06</v>
+        <v>3.398480144648209e-06</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -4988,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -5106,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.000675068447131033</v>
+        <v>0.0006750684471292648</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -5218,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0006663133661791232</v>
+        <v>0.0006663133661775077</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.697372868927955</v>
+        <v>3.69737286891899</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -5239,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0006784669272756894</v>
+        <v>0.000678466927273913</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -5254,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -5372,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.087690108787288</v>
+        <v>1.087690108784212</v>
       </c>
       <c r="AA20" t="n">
-        <v>4.035555691043252</v>
+        <v>4.035555691031838</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -5387,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0008082389024438298</v>
+        <v>0.0008082389024439386</v>
       </c>
       <c r="AF20" t="n">
         <v>1.907695913285422e-24</v>
@@ -5484,13 +5460,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.914220705611637</v>
+        <v>0.9622006338579041</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>8.183351072390325</v>
+        <v>1.182486700165036</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -5638,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.106098742695533</v>
+        <v>1.106098742692404</v>
       </c>
       <c r="AA22" t="n">
-        <v>4.035555691043252</v>
+        <v>4.035555691031838</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -5653,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0008082389024438298</v>
+        <v>0.0008082389024439386</v>
       </c>
       <c r="AF22" t="n">
         <v>1.907695913285422e-24</v>
@@ -5771,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.106098742695533</v>
+        <v>1.106098742692404</v>
       </c>
       <c r="AA23" t="n">
-        <v>4.035555691043252</v>
+        <v>4.035555691031838</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -5786,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0008082389024438298</v>
+        <v>0.0008082389024439386</v>
       </c>
       <c r="AF23" t="n">
         <v>1.907695913285422e-24</v>
@@ -5904,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.05530493713477667</v>
+        <v>0.05530493713462023</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.2017777845521626</v>
+        <v>0.2017777845515919</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -5919,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>4.041194512219149e-05</v>
+        <v>4.041194512219693e-05</v>
       </c>
       <c r="AF24" t="n">
         <v>9.53847956642711e-26</v>
@@ -6022,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.006508013875696575</v>
+        <v>0.006508013875697122</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -6170,10 +6146,10 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.050793805560757</v>
+        <v>1.050793805557784</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.833777906491089</v>
+        <v>3.833777906480246</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -6185,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0007678269573216383</v>
+        <v>0.0007678269573217416</v>
       </c>
       <c r="AF26" t="n">
         <v>1.812311117621151e-24</v>
@@ -6303,10 +6279,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.05542918986427517</v>
+        <v>0.05542918981118726</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.2017777857891664</v>
+        <v>0.2017777855960122</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -6415,13 +6391,13 @@
         <v>0.006234</v>
       </c>
       <c r="S28" t="n">
-        <v>0.4649769364800806</v>
+        <v>0.4649769364799905</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>8.963894338398559</v>
+        <v>8.963894338398232</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -6436,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01774557162894475</v>
+        <v>0.01774557162889456</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -6451,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.001118236103539278</v>
+        <v>0.001118236103612132</v>
       </c>
       <c r="AF28" t="n">
         <v>0.005749014481195774</v>
@@ -6481,7 +6457,7 @@
         <v>0.002094222</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.00306761086727681</v>
+        <v>0.003067610867282763</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
@@ -6548,13 +6524,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.005348101984223034</v>
+        <v>0.005348101984210075</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.5856171672724222</v>
+        <v>0.5856171672710032</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -6569,13 +6545,13 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0001088477423456524</v>
+        <v>0.0001088477423452083</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.002674050992111517</v>
+        <v>0.002674050992105038</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -6584,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.00202566140963345</v>
+        <v>0.002025661409633783</v>
       </c>
       <c r="AF29" t="n">
         <v>0.001909605518804226</v>
@@ -6681,13 +6657,13 @@
         <v>0.006234000000000017</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1590590449269152</v>
+        <v>0.1590590449268844</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>6.82687082092419</v>
+        <v>6.82687082092394</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -6702,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0001049333989178395</v>
+        <v>0.0001049333989178117</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -6717,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.001118236103539283</v>
+        <v>0.001118236103612127</v>
       </c>
       <c r="AF30" t="n">
         <v>0.005749014481195747</v>
@@ -6747,7 +6723,7 @@
         <v>0.002094222000000007</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.003067610867276804</v>
+        <v>0.003067610867282772</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -6814,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>2.936403000000081</v>
+        <v>2.936402999999991</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>6.695586263638559</v>
+        <v>6.695586263638233</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -6947,13 +6923,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3059178915531654</v>
+        <v>0.3059178915531061</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.137023517474369</v>
+        <v>2.137023517474292</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -7080,13 +7056,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.00187657955417734</v>
+        <v>0.001876579554172793</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.4500978888215474</v>
+        <v>0.4500978888204568</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -7101,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.592051125870106e-05</v>
+        <v>1.59205112586623e-05</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -7110,13 +7086,13 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.002674050992111515</v>
+        <v>0.002674050992105041</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.001337025496055758</v>
+        <v>0.001337025496052521</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.00202566140963345</v>
+        <v>0.002025661409633783</v>
       </c>
       <c r="AF33" t="n">
         <v>0.001909605518804224</v>
@@ -7213,13 +7189,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.003471522430045694</v>
+        <v>0.003471522430037283</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1355192784508747</v>
+        <v>0.1355192784505464</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -7346,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.3093894139832111</v>
+        <v>0.3093894139831434</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.272542795925244</v>
+        <v>2.272542795924839</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -7479,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.3093894139832111</v>
+        <v>0.3093894139831434</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2.272542795925244</v>
+        <v>2.272542795924839</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -7612,13 +7588,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.663133661791232e-05</v>
+        <v>6.663133661775076e-05</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.3697372868927954</v>
+        <v>0.3697372868918989</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -7633,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.398480144656394e-06</v>
+        <v>3.398480144648209e-06</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -7648,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
@@ -7745,13 +7721,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.663133661791232e-05</v>
+        <v>6.663133661775076e-05</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3697372868927954</v>
+        <v>0.3697372868918989</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -7766,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>3.398480144656394e-06</v>
+        <v>3.398480144648209e-06</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -7781,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
@@ -7878,13 +7854,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0005996820295612109</v>
+        <v>0.0005996820295597569</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.327635582035159</v>
+        <v>3.327635582027091</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -8080,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="AQ40" t="n">
         <v>0</v>
@@ -8213,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.8074306635413413</v>
+        <v>0.8074306635414499</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
@@ -8349,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.2691435545137804</v>
+        <v>0.2691435545138166</v>
       </c>
     </row>
     <row r="43">
@@ -8428,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1345717772568902</v>
+        <v>0.1345717772569083</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -8546,10 +8522,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.614861327082683</v>
+        <v>1.6148613270829</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3697372868927954</v>
+        <v>0.3697372868918989</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -8561,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4037153317706706</v>
+        <v>0.4037153317707249</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -8679,10 +8655,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.614861327082683</v>
+        <v>1.6148613270829</v>
       </c>
       <c r="U45" t="n">
-        <v>0.3697372868927954</v>
+        <v>0.3697372868918989</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -8694,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.4037153317706706</v>
+        <v>0.4037153317707249</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -8942,13 +8918,13 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>2.242094955005714</v>
+        <v>1.290074883251734</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>2.225443210619919</v>
+        <v>1.280493666744163</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -9075,13 +9051,13 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.6943080449943805</v>
+        <v>1.646328116748256</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>2.968187768483332</v>
+        <v>2.023238224607173</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -9208,13 +9184,13 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>2.936403000000081</v>
+        <v>2.936402999999991</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>6.695586263638559</v>
+        <v>6.695586263638233</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -9341,13 +9317,13 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>2.936403000000081</v>
+        <v>2.936402999999991</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>6.695586263638559</v>
+        <v>6.695586263638233</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -9480,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>1.378303020897155</v>
+        <v>3.268202108648651</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -9613,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>1.501955284535389</v>
+        <v>3.391854372286896</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -9873,13 +9849,13 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0.3099890960127723</v>
+        <v>0.3099890960127031</v>
       </c>
       <c r="T54" t="n">
-        <v>1.614861327082683</v>
+        <v>1.6148613270829</v>
       </c>
       <c r="U54" t="n">
-        <v>5.969915664853199</v>
+        <v>5.969915664843828</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -9891,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.4037153317706706</v>
+        <v>0.4037153317707249</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -10006,13 +9982,13 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0.3099890960127723</v>
+        <v>0.3099890960127031</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>5.969915664853199</v>
+        <v>5.969915664843828</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -10142,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>1.614861327082683</v>
+        <v>1.6148613270829</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -10157,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.4037153317706706</v>
+        <v>0.4037153317707249</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -10272,13 +10248,13 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>2.298539654593245</v>
+        <v>2.298539654593457</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>9.876060054334278</v>
+        <v>9.876060054334783</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -10405,13 +10381,13 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>2.608528750606018</v>
+        <v>2.60852875060616</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>15.84597571918748</v>
+        <v>15.84597571917861</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -10538,13 +10514,13 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>2.608528750606018</v>
+        <v>2.60852875060616</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>15.84597571918748</v>
+        <v>15.84597571917861</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -10677,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>4.694436878313821</v>
+        <v>12.6402507944064</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -10804,13 +10780,13 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>2.608528750606018</v>
+        <v>2.60852875060616</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>11.15153884087366</v>
+        <v>3.205724924772209</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -10943,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>11.0253298816309</v>
+        <v>11.02532988163151</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -11015,7 +10991,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>F39-T</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -11067,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>0.125091068</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -11076,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>11.0253298816309</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -11148,7 +11124,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F40</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -11200,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.125091068</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -11218,10 +11194,10 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>1.68713681538</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>0.44847940662</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
@@ -11281,7 +11257,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -11318,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.013807779</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>0.002438652</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.00054190962</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -11339,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1.9289901710937</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -11348,13 +11324,13 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>0.4428081295092</v>
       </c>
       <c r="X65" t="n">
         <v>1.68713681538</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.44847940662</v>
+        <v>0.8521947383907249</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -11414,7 +11390,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>F41-T</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -11472,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1.928990171093483</v>
+        <v>1.9289901710937</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -11487,7 +11463,7 @@
         <v>1.68713681538</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.8521947383906706</v>
+        <v>0.8521947383907249</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -11547,7 +11523,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>F41-T</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -11605,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.928990171093483</v>
+        <v>0.01928990171093692</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -11614,13 +11590,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0.4428081295092</v>
+        <v>0.05396874429850618</v>
       </c>
       <c r="X67" t="n">
         <v>1.68713681538</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.8521947383906706</v>
+        <v>0.08314013213701388</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -11680,7 +11656,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>F42</t>
+          <t>F42-T</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -11738,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.01928990171093492</v>
+        <v>0.01928990171093692</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -11747,13 +11723,13 @@
         <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>0.0539687442985024</v>
+        <v>0.05396874429850618</v>
       </c>
       <c r="X68" t="n">
         <v>1.68713681538</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.08314013213701055</v>
+        <v>0.08314013213701388</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -11813,7 +11789,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>F42-T</t>
+          <t>F43</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -11850,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.013807779</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.002438652</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0.00054190962</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -11871,22 +11847,22 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01928990171093492</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>0.09978954609402255</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0539687442985024</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>1.68713681538</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.08314013213701055</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -11946,7 +11922,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>F43</t>
+          <t>F43-T</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -12010,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>0.09978954609401415</v>
+        <v>0.09978954609402255</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -12079,7 +12055,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>F43-T</t>
+          <t>F44</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -12116,16 +12092,16 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.013807779</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>0.002438652</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.00054190962</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -12137,22 +12113,22 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>0.001203689866762465</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>0.1301602775139424</v>
       </c>
       <c r="V71" t="n">
-        <v>0.09978954609401415</v>
+        <v>0.01301602775139424</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>0.003367649644226783</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>1.764867227800541</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>0.0614467525513568</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
@@ -12212,7 +12188,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>F44</t>
+          <t>F44-T</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -12270,22 +12246,22 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0.00120368986676234</v>
+        <v>0.001203689866762465</v>
       </c>
       <c r="U72" t="n">
-        <v>0.1301602775139315</v>
+        <v>0.1301602775139424</v>
       </c>
       <c r="V72" t="n">
-        <v>0.01301602775139314</v>
+        <v>0.01301602775139424</v>
       </c>
       <c r="W72" t="n">
-        <v>0.003367649644226547</v>
+        <v>0.003367649644226783</v>
       </c>
       <c r="X72" t="n">
-        <v>1.764867227800535</v>
+        <v>1.764867227800541</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.0614467525513553</v>
+        <v>0.0614467525513568</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
@@ -12345,7 +12321,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>F44-T</t>
+          <t>F45</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -12382,16 +12358,16 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.013807779</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0.002438652</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.00054190962</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -12403,22 +12379,22 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.00120368986676234</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>0.1301602775139315</v>
+        <v>0.1301602775139424</v>
       </c>
       <c r="V73" t="n">
-        <v>0.01301602775139314</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0.003367649644226547</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>1.764867227800535</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0614467525513553</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
         <v>0</v>
@@ -12478,7 +12454,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>F45</t>
+          <t>F45_R</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -12539,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>0.1301602775139315</v>
+        <v>0.1236522636382453</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
@@ -12611,7 +12587,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>F45_R</t>
+          <t>F46</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -12648,16 +12624,16 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.013807779</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.002438652</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.00054190962</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -12669,22 +12645,22 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>0.001203689866762465</v>
       </c>
       <c r="U75" t="n">
-        <v>0.1236522636382349</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>0.01301602775139424</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>0.003367649644226783</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>1.764867227800541</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>0.0614467525513568</v>
       </c>
       <c r="Z75" t="n">
         <v>0</v>
@@ -12744,7 +12720,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>F46</t>
+          <t>F47</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -12781,16 +12757,16 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.013807779</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.002438652</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0.00054190962</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -12802,22 +12778,22 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0.00120368986676234</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>12.59686918934608</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01301602775139314</v>
+        <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>0.003367649644226547</v>
+        <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>1.764867227800535</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.0614467525513553</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
         <v>0</v>
@@ -12877,7 +12853,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>F47</t>
+          <t>F47-T</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -12938,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>12.59686918934602</v>
+        <v>12.59686918934608</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
@@ -13010,7 +12986,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>F47-T</t>
+          <t>F48</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -13071,10 +13047,10 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>12.59686918934602</v>
+        <v>12.59686918934608</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>0.01288586747388029</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -13143,7 +13119,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>F48</t>
+          <t>F49</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -13180,16 +13156,16 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.013807779</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>0.002438652</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.00054190962</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -13201,22 +13177,22 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>0.001203689866762465</v>
       </c>
       <c r="U79" t="n">
-        <v>12.59686918934602</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0.01288586747387921</v>
+        <v>0.0001301602775139431</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>0.003367649644226783</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>1.764867227800541</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>0.0614467525513568</v>
       </c>
       <c r="Z79" t="n">
         <v>0</v>
@@ -13276,7 +13252,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>F49</t>
+          <t>F49A</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -13334,22 +13310,22 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0.00120368986676234</v>
+        <v>0.001203689866762465</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>0.0001301602775139309</v>
+        <v>0.0001301602775139431</v>
       </c>
       <c r="W80" t="n">
-        <v>0.003367649644226547</v>
+        <v>0.003367649644226783</v>
       </c>
       <c r="X80" t="n">
-        <v>1.764867227800535</v>
+        <v>1.764867227800541</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.0614467525513553</v>
+        <v>0.0614467525513568</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -13409,7 +13385,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>F49A</t>
+          <t>F49B</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -13446,16 +13422,16 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.013807779</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0.002438652</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0.00054190962</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -13467,22 +13443,22 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>0.00120368986676234</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>0.0001301602775139309</v>
+        <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0.003367649644226547</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>1.764867227800535</v>
+        <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0614467525513553</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
         <v>0</v>
@@ -13542,7 +13518,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>F49B</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -13591,19 +13567,19 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1.105938000000001e-05</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>0.006234</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>0.4649769364799905</v>
       </c>
       <c r="T82" t="n">
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>8.963894338398232</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -13633,37 +13609,37 @@
         <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>0.810614973</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>0.00765862</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>0.000403571</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>0.000321834</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>0.01255454</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0</v>
+        <v>0.002529914</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>0.000366416</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>0.000212478</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>0.008544556</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>0.002094222</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>0.003139914</v>
       </c>
       <c r="AP82" t="n">
         <v>0</v>
@@ -13675,7 +13651,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F50A</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -13712,10 +13688,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.013807779</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>0.002438652</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -13724,31 +13700,31 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.105938000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0.006234</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0.4649769364800806</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>0.001203689866762465</v>
       </c>
       <c r="U83" t="n">
-        <v>8.963894338398559</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>0.0001301602775139431</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>0.003367649644226783</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>1.764867227800541</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>0.0614467525513568</v>
       </c>
       <c r="Z83" t="n">
         <v>0</v>
@@ -13766,37 +13742,37 @@
         <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.810614973</v>
+        <v>0</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.00765862</v>
+        <v>0</v>
       </c>
       <c r="AG83" t="n">
-        <v>0.000403571</v>
+        <v>0</v>
       </c>
       <c r="AH83" t="n">
-        <v>0.000321834</v>
+        <v>0</v>
       </c>
       <c r="AI83" t="n">
-        <v>0.01255454</v>
+        <v>0</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0.002529914</v>
+        <v>0</v>
       </c>
       <c r="AK83" t="n">
-        <v>0.000366416</v>
+        <v>0</v>
       </c>
       <c r="AL83" t="n">
-        <v>0.000212478</v>
+        <v>0</v>
       </c>
       <c r="AM83" t="n">
-        <v>0.008544556</v>
+        <v>0</v>
       </c>
       <c r="AN83" t="n">
-        <v>0.002094222</v>
+        <v>0</v>
       </c>
       <c r="AO83" t="n">
-        <v>0.003139914</v>
+        <v>0</v>
       </c>
       <c r="AP83" t="n">
         <v>0</v>
@@ -13808,7 +13784,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>F50A</t>
+          <t>F50B</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -13845,10 +13821,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.013807779</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.002438652</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -13866,22 +13842,22 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0.00120368986676234</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>0.0001301602775139309</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>0.003367649644226547</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>1.764867227800535</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.0614467525513553</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
         <v>0</v>
@@ -13941,7 +13917,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>F50B</t>
+          <t>F51A</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -14074,7 +14050,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>F51A</t>
+          <t>F51B</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -14120,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>0.00108381924</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -14144,10 +14120,10 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>0.007705954796400002</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>0.0020484183636</v>
       </c>
       <c r="Z86" t="n">
         <v>0</v>
@@ -14207,7 +14183,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>F51B</t>
+          <t>F52A</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -14253,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0.00108381924</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -14277,10 +14253,10 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0.007705954796400002</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.0020484183636</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
@@ -14340,7 +14316,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>F52A</t>
+          <t>F52B</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -14386,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>0.00108381924</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -14410,10 +14386,10 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>0.007705954796400002</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>0.0020484183636</v>
       </c>
       <c r="Z88" t="n">
         <v>0</v>
@@ -14473,7 +14449,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>F52B</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -14519,22 +14495,22 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>0.00108381924</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1.105938000000001e-05</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>0.006234</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>0.4649769364799905</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>8.963894338398232</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -14543,10 +14519,10 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0.007705954796400002</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.0020484183636</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="n">
         <v>0</v>
@@ -14564,37 +14540,37 @@
         <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>0.810614973</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>0.00765862</v>
       </c>
       <c r="AG89" t="n">
-        <v>0</v>
+        <v>0.000403571</v>
       </c>
       <c r="AH89" t="n">
-        <v>0</v>
+        <v>0.000321834</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
+        <v>0.01255454</v>
       </c>
       <c r="AJ89" t="n">
-        <v>0</v>
+        <v>0.002529914</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>0.000366416</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>0.000212478</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>0.008544556</v>
       </c>
       <c r="AN89" t="n">
-        <v>0</v>
+        <v>0.002094222</v>
       </c>
       <c r="AO89" t="n">
-        <v>0</v>
+        <v>0.003139914</v>
       </c>
       <c r="AP89" t="n">
         <v>0</v>
@@ -14606,7 +14582,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -14655,19 +14631,19 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.105938000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0.006234</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0.4649769364800806</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>8.963894338398559</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -14682,10 +14658,10 @@
         <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>1.106222995082726</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>4.035555691031838</v>
       </c>
       <c r="AB90" t="n">
         <v>0</v>
@@ -14697,37 +14673,37 @@
         <v>0</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.810614973</v>
+        <v>0.0007678269571397933</v>
       </c>
       <c r="AF90" t="n">
-        <v>0.00765862</v>
+        <v>1.81231111719919e-24</v>
       </c>
       <c r="AG90" t="n">
-        <v>0.000403571</v>
+        <v>0</v>
       </c>
       <c r="AH90" t="n">
-        <v>0.000321834</v>
+        <v>0</v>
       </c>
       <c r="AI90" t="n">
-        <v>0.01255454</v>
+        <v>0</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0.002529914</v>
+        <v>0</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.000366416</v>
+        <v>0</v>
       </c>
       <c r="AL90" t="n">
-        <v>0.000212478</v>
+        <v>0</v>
       </c>
       <c r="AM90" t="n">
-        <v>0.008544556</v>
+        <v>0</v>
       </c>
       <c r="AN90" t="n">
-        <v>0.002094222</v>
+        <v>0</v>
       </c>
       <c r="AO90" t="n">
-        <v>0.003139914</v>
+        <v>2.556480701298997e-05</v>
       </c>
       <c r="AP90" t="n">
         <v>0</v>
@@ -14739,7 +14715,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -14815,10 +14791,10 @@
         <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>1.106222995085854</v>
+        <v>1.088477423453831</v>
       </c>
       <c r="AA91" t="n">
-        <v>4.035555691043252</v>
+        <v>4.035555691031838</v>
       </c>
       <c r="AB91" t="n">
         <v>0</v>
@@ -14830,13 +14806,13 @@
         <v>0</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.0007678269569579483</v>
+        <v>0.8102645638535276</v>
       </c>
       <c r="AF91" t="n">
-        <v>1.812311116777229e-24</v>
+        <v>0.001909605518804226</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>8.805067545264276e-05</v>
       </c>
       <c r="AH91" t="n">
         <v>0</v>
@@ -14860,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="AO91" t="n">
-        <v>2.556480700703769e-05</v>
+        <v>9.78679397302275e-05</v>
       </c>
       <c r="AP91" t="n">
         <v>0</v>
@@ -14872,7 +14848,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -14927,13 +14903,13 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>0.005348101984210075</v>
       </c>
       <c r="T92" t="n">
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>0.5856171672710032</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -14948,13 +14924,13 @@
         <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.08847742345691</v>
+        <v>0</v>
       </c>
       <c r="AA92" t="n">
-        <v>4.035555691043252</v>
+        <v>0</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>0.002674050992105038</v>
       </c>
       <c r="AC92" t="n">
         <v>0</v>
@@ -14963,13 +14939,13 @@
         <v>0</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.8102645638534186</v>
+        <v>0</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.001909605518804226</v>
+        <v>0</v>
       </c>
       <c r="AG92" t="n">
-        <v>8.805067545264276e-05</v>
+        <v>0</v>
       </c>
       <c r="AH92" t="n">
         <v>0</v>
@@ -14993,145 +14969,12 @@
         <v>0</v>
       </c>
       <c r="AO92" t="n">
-        <v>9.78679397302275e-05</v>
+        <v>0</v>
       </c>
       <c r="AP92" t="n">
         <v>0</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.005348101984223034</v>
-      </c>
-      <c r="T93" t="n">
-        <v>0</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0.5856171672724222</v>
-      </c>
-      <c r="V93" t="n">
-        <v>0</v>
-      </c>
-      <c r="W93" t="n">
-        <v>0</v>
-      </c>
-      <c r="X93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>0.002674050992111517</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15146,7 +14989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ93"/>
+  <dimension ref="A1:AQ92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15583,10 +15426,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1834666680991544</v>
+        <v>0.1834666680990804</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6802750217941436</v>
+        <v>0.6802750217938689</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -15598,10 +15441,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1362451119668932</v>
+        <v>0.1362451119672418</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.215809614193056e-25</v>
+        <v>3.215809614200853e-25</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -15628,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.319813980880884e-05</v>
+        <v>1.319813980884084e-05</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -15716,10 +15559,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1834666680991544</v>
+        <v>0.1834666680990804</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6802750217941436</v>
+        <v>0.6802750217938689</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -15731,10 +15574,10 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1362451119668932</v>
+        <v>0.1362451119672418</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.215809614193056e-25</v>
+        <v>3.215809614200853e-25</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -15761,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.319813980880884e-05</v>
+        <v>1.319813980884084e-05</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -15822,19 +15665,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.167574785561178e-06</v>
+        <v>1.167574785561219e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0006581436946002736</v>
+        <v>0.0006581436946002972</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04908913039443648</v>
+        <v>0.04908913039442872</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9463475357523424</v>
+        <v>0.9463475357523419</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -15849,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.107816086794209e-05</v>
+        <v>1.107816086793959e-05</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -15864,37 +15707,37 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0001180558294223218</v>
+        <v>0.0001180558294300175</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0006069421929683448</v>
+        <v>0.0006069421929683666</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.331050884168673e-05</v>
+        <v>3.331050884168793e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.397706413345917e-05</v>
+        <v>3.397706413346039e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.001325423699006564</v>
+        <v>0.001325423699006611</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0002670912651557517</v>
+        <v>0.0002670912651557613</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.868373115185336e-05</v>
+        <v>3.868373115185475e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.243199485743936e-05</v>
+        <v>2.243199485744016e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0009020766208788796</v>
+        <v>0.0009020766208789119</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0002210938409357033</v>
+        <v>0.0002210938409357112</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0003238576756152566</v>
+        <v>0.0003238576756158966</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -15955,19 +15798,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.167574785561178e-06</v>
+        <v>1.167574785561219e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0006581436946002736</v>
+        <v>0.0006581436946002972</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04908913039443648</v>
+        <v>0.04908913039442872</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9463475357523424</v>
+        <v>0.9463475357523419</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -15982,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.107816086794209e-05</v>
+        <v>1.107816086793959e-05</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -15997,37 +15840,37 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0001180558294223218</v>
+        <v>0.0001180558294300175</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0006069421929683448</v>
+        <v>0.0006069421929683666</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.331050884168673e-05</v>
+        <v>3.331050884168793e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.397706413345917e-05</v>
+        <v>3.397706413346039e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.001325423699006564</v>
+        <v>0.001325423699006611</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0002670912651557517</v>
+        <v>0.0002670912651557613</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.868373115185336e-05</v>
+        <v>3.868373115185475e-05</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.243199485743936e-05</v>
+        <v>2.243199485744016e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0009020766208788796</v>
+        <v>0.0009020766208789119</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0002210938409357033</v>
+        <v>0.0002210938409357112</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0003238576756152566</v>
+        <v>0.0003238576756158966</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -16088,19 +15931,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.167574785561178e-06</v>
+        <v>1.167574785561219e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0006581436946002736</v>
+        <v>0.0006581436946002972</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04908913039443648</v>
+        <v>0.04908913039442872</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9463475357523424</v>
+        <v>0.9463475357523419</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -16115,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.107816086794209e-05</v>
+        <v>1.107816086793959e-05</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -16130,37 +15973,37 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0001180558294223218</v>
+        <v>0.0001180558294300175</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0006069421929683448</v>
+        <v>0.0006069421929683666</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.331050884168673e-05</v>
+        <v>3.331050884168793e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.397706413345917e-05</v>
+        <v>3.397706413346039e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.001325423699006564</v>
+        <v>0.001325423699006611</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0002670912651557517</v>
+        <v>0.0002670912651557613</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.868373115185336e-05</v>
+        <v>3.868373115185475e-05</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.243199485743936e-05</v>
+        <v>2.243199485744016e-05</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0009020766208788796</v>
+        <v>0.0009020766208789119</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0002210938409357033</v>
+        <v>0.0002210938409357112</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0003238576756152566</v>
+        <v>0.0003238576756158966</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -16227,13 +16070,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.008947831187880149</v>
+        <v>0.008947831187879998</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9797875150728763</v>
+        <v>0.9797875150728595</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -16248,13 +16091,13 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.663637447226015e-05</v>
+        <v>2.663637447225939e-05</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.004473915593940074</v>
+        <v>0.004473915593939999</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -16263,13 +16106,13 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.003389104469337578</v>
+        <v>0.003389104469346289</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.003194933056271338</v>
+        <v>0.003194933056279025</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0001473162969317478</v>
+        <v>0.0001473162969321022</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -16293,7 +16136,7 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.274794829061365e-05</v>
+        <v>3.274794829069244e-05</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -16360,13 +16203,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.008947831187880149</v>
+        <v>0.008947831187879998</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9797875150728763</v>
+        <v>0.9797875150728595</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -16381,13 +16224,13 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.663637447226015e-05</v>
+        <v>2.663637447225939e-05</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.004473915593940074</v>
+        <v>0.004473915593939999</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -16396,13 +16239,13 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.003389104469337578</v>
+        <v>0.003389104469346289</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.003194933056271338</v>
+        <v>0.003194933056279025</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0001473162969317478</v>
+        <v>0.0001473162969321022</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -16426,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.274794829061365e-05</v>
+        <v>3.274794829069244e-05</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
@@ -16493,13 +16336,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.008947831187880149</v>
+        <v>0.008947831187879998</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9797875150728763</v>
+        <v>0.9797875150728595</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -16514,13 +16357,13 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.663637447226015e-05</v>
+        <v>2.663637447225939e-05</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.004473915593940074</v>
+        <v>0.004473915593939999</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -16529,13 +16372,13 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.003389104469337578</v>
+        <v>0.003389104469346289</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.003194933056271338</v>
+        <v>0.003194933056279025</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0001473162969317478</v>
+        <v>0.0001473162969321022</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -16559,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.274794829061365e-05</v>
+        <v>3.274794829069244e-05</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -17031,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9998198198198198</v>
+        <v>0.9998198198198197</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -17164,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9998198198198198</v>
+        <v>0.9998198198198197</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -17291,13 +17134,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0001478880754435806</v>
+        <v>0.0001478880754435128</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8206309306364288</v>
+        <v>0.8206309306360524</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -17312,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.542917695145627e-07</v>
+        <v>7.54291769514229e-07</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -17327,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.1792090222803091</v>
+        <v>0.1792090222806855</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -17357,7 +17200,7 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.140471604901636e-05</v>
+        <v>1.140471604903878e-05</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -17424,13 +17267,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001478880754435806</v>
+        <v>0.0001478880754435128</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8206309306364288</v>
+        <v>0.8206309306360524</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -17445,7 +17288,7 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.542917695145627e-07</v>
+        <v>7.54291769514229e-07</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -17460,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1792090222803091</v>
+        <v>0.1792090222806855</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -17490,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.140471604901636e-05</v>
+        <v>1.140471604903878e-05</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
@@ -17690,13 +17533,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0001478659205059054</v>
+        <v>0.0001478659205058376</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8205079928872691</v>
+        <v>0.8205079928868928</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -17711,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0001505629960715266</v>
+        <v>0.0001505629960714284</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -17726,7 +17569,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.1791821751886315</v>
+        <v>0.1791821751890079</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -17756,7 +17599,7 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.140300752199339e-05</v>
+        <v>1.140300752201581e-05</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -17844,10 +17687,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.2122702821444765</v>
+        <v>0.2122702821444764</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.7875667326814162</v>
+        <v>0.7875667326814159</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -17859,10 +17702,10 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0001577334375626335</v>
+        <v>0.0001577334375631008</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.723001124009981e-25</v>
+        <v>3.723001124020509e-25</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
@@ -17889,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.251736544636503e-06</v>
+        <v>5.251736544651354e-06</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
@@ -17956,13 +17799,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1895723791517737</v>
+        <v>0.4486437806545149</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.8104276208482264</v>
+        <v>0.5513562193454851</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -18110,10 +17953,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.2150901280110943</v>
+        <v>0.2150901280110942</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.7847474702548528</v>
+        <v>0.7847474702548526</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
@@ -18125,10 +17968,10 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0001571687972147369</v>
+        <v>0.0001571687972152025</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.709673850589939e-25</v>
+        <v>3.70967385060043e-25</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -18155,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>5.232936838021047e-06</v>
+        <v>5.232936838035847e-06</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -18243,10 +18086,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.2150901280110943</v>
+        <v>0.2150901280110942</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.7847474702548528</v>
+        <v>0.7847474702548526</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -18258,10 +18101,10 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0001571687972147369</v>
+        <v>0.0001571687972152025</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.709673850589939e-25</v>
+        <v>3.70967385060043e-25</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -18288,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.232936838021047e-06</v>
+        <v>5.232936838035847e-06</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
@@ -18376,10 +18219,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.2150901280110943</v>
+        <v>0.2150901280110942</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.7847474702548529</v>
+        <v>0.7847474702548526</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -18391,10 +18234,10 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0001571687972147369</v>
+        <v>0.0001571687972152025</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.709673850589939e-25</v>
+        <v>3.70967385060043e-25</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -18421,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.232936838021048e-06</v>
+        <v>5.232936838035847e-06</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
@@ -18642,10 +18485,10 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.2150901280110943</v>
+        <v>0.2150901280110941</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.7847474702548529</v>
+        <v>0.7847474702548526</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -18657,10 +18500,10 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0001571687972147369</v>
+        <v>0.0001571687972152025</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.709673850589939e-25</v>
+        <v>3.70967385060043e-25</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -18687,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.232936838021047e-06</v>
+        <v>5.232936838035846e-06</v>
       </c>
       <c r="AP26" t="n">
         <v>0</v>
@@ -18775,10 +18618,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.2155042246558662</v>
+        <v>0.2155042246557818</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.7844957753441338</v>
+        <v>0.7844957753442181</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -18881,19 +18724,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.165404360181478e-06</v>
+        <v>1.165404360181526e-06</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0006569202596683834</v>
+        <v>0.0006569202596684103</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04899787774339173</v>
+        <v>0.04899787774338423</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9445883536125654</v>
+        <v>0.9445883536125698</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -18908,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.001869975220155643</v>
+        <v>0.001869975220150432</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -18923,37 +18766,37 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0001178363733570073</v>
+        <v>0.0001178363733646893</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.0006058139374116818</v>
+        <v>0.0006058139374117066</v>
       </c>
       <c r="AG28" t="n">
-        <v>3.324858734878128e-05</v>
+        <v>3.324858734878264e-05</v>
       </c>
       <c r="AH28" t="n">
-        <v>3.391390356915536e-05</v>
+        <v>3.391390356915675e-05</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.001322959845495205</v>
+        <v>0.001322959845495259</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.000266594764488078</v>
+        <v>0.000266594764488089</v>
       </c>
       <c r="AK28" t="n">
-        <v>3.861182128114379e-05</v>
+        <v>3.861182128114537e-05</v>
       </c>
       <c r="AL28" t="n">
-        <v>2.239029562621411e-05</v>
+        <v>2.239029562621503e-05</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.0009003997347242611</v>
+        <v>0.000900399734724298</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.0002206828456918898</v>
+        <v>0.0002206828456918989</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.0003232556508651006</v>
+        <v>0.0003232556508657411</v>
       </c>
       <c r="AP28" t="n">
         <v>0</v>
@@ -19020,13 +18863,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.008946440238376924</v>
+        <v>0.008946440238376777</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.9796352061022732</v>
+        <v>0.9796352061022569</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -19041,13 +18884,13 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0001820832558635475</v>
+        <v>0.0001820832558632428</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.004473220119188462</v>
+        <v>0.004473220119188388</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -19056,13 +18899,13 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.003388577629584009</v>
+        <v>0.00338857762959272</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.003194436400662382</v>
+        <v>0.003194436400670069</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.0001472933964628262</v>
+        <v>0.0001472933964631806</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -19086,7 +18929,7 @@
         <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>3.274285758858206e-05</v>
+        <v>3.274285758866085e-05</v>
       </c>
       <c r="AP29" t="n">
         <v>0</v>
@@ -19147,19 +18990,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57335856984903e-06</v>
+        <v>1.573358569849075e-06</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0008868776843221662</v>
+        <v>0.0008868776843221917</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02262847568740417</v>
+        <v>0.02262847568740043</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.9712222304824822</v>
+        <v>0.9712222304824746</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -19174,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.492831085022575e-05</v>
+        <v>1.492831085022223e-05</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -19189,37 +19032,37 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.0001590854420969456</v>
+        <v>0.0001590854421073133</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.0008178814004198699</v>
+        <v>0.0008178814004198934</v>
       </c>
       <c r="AG30" t="n">
-        <v>4.488738126261436e-05</v>
+        <v>4.488738126261565e-05</v>
       </c>
       <c r="AH30" t="n">
-        <v>4.578559394548272e-05</v>
+        <v>4.578559394548403e-05</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.001786066949459413</v>
+        <v>0.001786066949459464</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.0003599172713914368</v>
+        <v>0.0003599172713914472</v>
       </c>
       <c r="AK30" t="n">
-        <v>5.212803554356611e-05</v>
+        <v>5.212803554356761e-05</v>
       </c>
       <c r="AL30" t="n">
-        <v>3.022810340221447e-05</v>
+        <v>3.022810340221533e-05</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.001215588071678061</v>
+        <v>0.001215588071678096</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.0002979337115522195</v>
+        <v>0.0002979337115522281</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.000436412515619499</v>
+        <v>0.0004364125156203604</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -19286,13 +19129,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3048594552617688</v>
+        <v>0.3048594552617725</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.6951405447382313</v>
+        <v>0.6951405447382274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -19419,13 +19262,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1252252266152149</v>
+        <v>0.1252252266151976</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.874774773384785</v>
+        <v>0.8747747733848024</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -19552,13 +19395,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.004079127432403764</v>
+        <v>0.004079127432403674</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.9783793292812825</v>
+        <v>0.9783793292812608</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -19573,7 +19416,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>3.460647009006226e-05</v>
+        <v>3.46064700900611e-05</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -19582,19 +19425,19 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.005812593840366321</v>
+        <v>0.005812593840366205</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.002906296920183161</v>
+        <v>0.002906296920183103</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.004403187174454649</v>
+        <v>0.004403187174465945</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.004150916085323504</v>
+        <v>0.00415091608533347</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0001913960561283049</v>
+        <v>0.0001913960561287645</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -19618,7 +19461,7 @@
         <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>4.254673976784144e-05</v>
+        <v>4.254673976794359e-05</v>
       </c>
       <c r="AP33" t="n">
         <v>0</v>
@@ -19818,13 +19661,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1198286356225367</v>
+        <v>0.1198286356225324</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.8801713643774633</v>
+        <v>0.8801713643774677</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -19951,13 +19794,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1198286356225367</v>
+        <v>0.1198286356225324</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.8801713643774633</v>
+        <v>0.8801713643774677</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -20084,13 +19927,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>5.659724671627039e-05</v>
+        <v>5.659724671617105e-05</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.3140581220285844</v>
+        <v>0.3140581220280331</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -20105,7 +19948,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.886699096409193e-06</v>
+        <v>2.886699096404173e-06</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -20120,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.6858387478069327</v>
+        <v>0.685838747807484</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
@@ -20150,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>4.364621867037797e-05</v>
+        <v>4.364621867040718e-05</v>
       </c>
       <c r="AP37" t="n">
         <v>0</v>
@@ -20217,13 +20060,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.659724671627039e-05</v>
+        <v>5.659724671617105e-05</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3140581220285844</v>
+        <v>0.3140581220280331</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -20238,7 +20081,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.886699096409193e-06</v>
+        <v>2.886699096404173e-06</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
@@ -20253,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.6858387478069327</v>
+        <v>0.685838747807484</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
@@ -20283,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>4.364621867037797e-05</v>
+        <v>4.364621867040718e-05</v>
       </c>
       <c r="AP38" t="n">
         <v>0</v>
@@ -21018,10 +20861,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6761511944269007</v>
+        <v>0.6761511944271685</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1548110069663741</v>
+        <v>0.1548110069660392</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -21033,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.1690377986067252</v>
+        <v>0.1690377986067921</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -21151,10 +20994,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6761511944269007</v>
+        <v>0.6761511944271685</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1548110069663741</v>
+        <v>0.1548110069660392</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -21166,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1690377986067252</v>
+        <v>0.1690377986067921</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -21414,7 +21257,7 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5018636376196982</v>
+        <v>0.5018636376196983</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -21547,13 +21390,13 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1895723791517736</v>
+        <v>0.4486437806545149</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0.8104276208482263</v>
+        <v>0.5513562193454852</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -21680,13 +21523,13 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0.3048594552617688</v>
+        <v>0.3048594552617725</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.6951405447382313</v>
+        <v>0.6951405447382274</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -21813,13 +21656,13 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0.3048594552617688</v>
+        <v>0.3048594552617725</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0.6951405447382313</v>
+        <v>0.6951405447382274</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -22345,13 +22188,13 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03735491836809546</v>
+        <v>0.0373549183681284</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1945972094659822</v>
+        <v>0.1945972094662234</v>
       </c>
       <c r="U54" t="n">
-        <v>0.7193985697994267</v>
+        <v>0.7193985697990924</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -22363,7 +22206,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.04864930236649554</v>
+        <v>0.04864930236655584</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -22478,13 +22321,13 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0.04936206961998994</v>
+        <v>0.04936206962005311</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>0.95063793038001</v>
+        <v>0.9506379303799468</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -22744,13 +22587,13 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1887979653990387</v>
+        <v>0.188797965399045</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0.8112020346009613</v>
+        <v>0.8112020346009551</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -22877,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1413491624700995</v>
+        <v>0.141349162470174</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0.8586508375299005</v>
+        <v>0.8586508375298261</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -23010,13 +22853,13 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1413491624700995</v>
+        <v>0.141349162470174</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0.8586508375299005</v>
+        <v>0.8586508375298261</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -23276,13 +23119,13 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1895723791517737</v>
+        <v>0.4486437806545149</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0.8104276208482263</v>
+        <v>0.5513562193454851</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -23487,7 +23330,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>F39-T</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -23539,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -23548,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -23620,7 +23463,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F40</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -23672,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -23690,10 +23533,10 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
@@ -23753,7 +23596,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>F40</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -23790,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.002801949718651501</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>0.0004948645459410178</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.0001099672515973454</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -23811,7 +23654,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>0.391441191749774</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -23820,13 +23663,13 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>0.08985703739137918</v>
       </c>
       <c r="X65" t="n">
-        <v>0.79</v>
+        <v>0.3423629915557441</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.21</v>
+        <v>0.1729319977869128</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
@@ -23886,7 +23729,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>F41-T</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -23923,16 +23766,16 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.002801949718651655</v>
+        <v>0.002801949718651501</v>
       </c>
       <c r="N66" t="n">
-        <v>0.000494864545941045</v>
+        <v>0.0004948645459410178</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0001099672515973514</v>
+        <v>0.0001099672515973454</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -23944,7 +23787,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0.3914411917497516</v>
+        <v>0.391441191749774</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -23953,13 +23796,13 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08985703739138413</v>
+        <v>0.08985703739137918</v>
       </c>
       <c r="X66" t="n">
-        <v>0.3423629915557629</v>
+        <v>0.3423629915557441</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1729319977869113</v>
+        <v>0.1729319977869128</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
@@ -24019,7 +23862,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>F41-T</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -24056,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.002801949718651655</v>
+        <v>0.007422244452461558</v>
       </c>
       <c r="N67" t="n">
-        <v>0.000494864545941045</v>
+        <v>0.001310874926263252</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0001099672515973514</v>
+        <v>0.0002912985260540853</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -24077,7 +23920,7 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0.3914411917497516</v>
+        <v>0.01036910903357667</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -24086,13 +23929,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0.08985703739138413</v>
+        <v>0.02901040152626312</v>
       </c>
       <c r="X67" t="n">
-        <v>0.3423629915557629</v>
+        <v>0.9069048591013706</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.1729319977869113</v>
+        <v>0.04469121243401072</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
@@ -24152,7 +23995,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>F42</t>
+          <t>F42-T</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -24189,16 +24032,16 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.007422244452461594</v>
+        <v>0.007422244452461558</v>
       </c>
       <c r="N68" t="n">
-        <v>0.001310874926263259</v>
+        <v>0.001310874926263252</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0002912985260540867</v>
+        <v>0.0002912985260540853</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -24210,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.01036910903357565</v>
+        <v>0.01036910903357667</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -24219,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>0.02901040152626123</v>
+        <v>0.02901040152626312</v>
       </c>
       <c r="X68" t="n">
-        <v>0.9069048591013751</v>
+        <v>0.9069048591013706</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.04469121243400915</v>
+        <v>0.04469121243401072</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -24285,7 +24128,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>F42-T</t>
+          <t>F43</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -24322,16 +24165,16 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.007422244452461594</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.001310874926263259</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0002912985260540867</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -24343,22 +24186,22 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01036910903357565</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>0.02901040152626123</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0.9069048591013751</v>
+        <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.04469121243400915</v>
+        <v>0</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -24418,7 +24261,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>F43</t>
+          <t>F43-T</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -24551,7 +24394,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>F43-T</t>
+          <t>F44</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -24588,16 +24431,16 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.006935620080647616</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>0.001224930076076063</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.0002722001302575975</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -24609,22 +24452,22 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>0.0006046110392402575</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>0.06537924994514799</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>0.006537924994514797</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>0.001691563755263253</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>0.8864893177107139</v>
       </c>
       <c r="Y71" t="n">
-        <v>0</v>
+        <v>0.03086458226813852</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
@@ -24684,7 +24527,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>F44</t>
+          <t>F44-T</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -24721,16 +24564,16 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.006935620080647686</v>
+        <v>0.006935620080647616</v>
       </c>
       <c r="N72" t="n">
-        <v>0.001224930076076076</v>
+        <v>0.001224930076076063</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0.0002722001302576003</v>
+        <v>0.0002722001302575975</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -24742,22 +24585,22 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0.0006046110392402009</v>
+        <v>0.0006046110392402575</v>
       </c>
       <c r="U72" t="n">
-        <v>0.06537924994514316</v>
+        <v>0.06537924994514799</v>
       </c>
       <c r="V72" t="n">
-        <v>0.006537924994514312</v>
+        <v>0.006537924994514797</v>
       </c>
       <c r="W72" t="n">
-        <v>0.001691563755263151</v>
+        <v>0.001691563755263253</v>
       </c>
       <c r="X72" t="n">
-        <v>0.8864893177107197</v>
+        <v>0.8864893177107139</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.03086458226813808</v>
+        <v>0.03086458226813852</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
@@ -24817,7 +24660,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>F44-T</t>
+          <t>F45</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -24854,16 +24697,16 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.006935620080647686</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0.001224930076076076</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.0002722001302576003</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -24875,22 +24718,22 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.0006046110392402009</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>0.06537924994514316</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>0.006537924994514312</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0.001691563755263151</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>0.8864893177107197</v>
+        <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.03086458226813808</v>
+        <v>0</v>
       </c>
       <c r="Z73" t="n">
         <v>0</v>
@@ -24950,7 +24793,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>F45</t>
+          <t>F45_R</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -25083,7 +24926,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>F45_R</t>
+          <t>F46</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -25120,16 +24963,16 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.007420785468587736</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>0.001310617248765527</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.0002912412657664858</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -25141,22 +24984,22 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>0.0006469052171212479</v>
       </c>
       <c r="U75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>0.006995270535274432</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>0.001809893216220565</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
+        <v>0.9485016437508869</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>0.03302364329737715</v>
       </c>
       <c r="Z75" t="n">
         <v>0</v>
@@ -25216,7 +25059,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>F46</t>
+          <t>F47</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -25253,16 +25096,16 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.007420785468587773</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.001310617248765534</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0002912412657664873</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -25274,22 +25117,22 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0.0006469052171211839</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V76" t="n">
-        <v>0.006995270535273878</v>
+        <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>0.001809893216220447</v>
+        <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>0.9485016437508881</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.0330236432973765</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="n">
         <v>0</v>
@@ -25349,7 +25192,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>F47</t>
+          <t>F47-T</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -25482,7 +25325,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>F47-T</t>
+          <t>F48</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -25543,10 +25386,10 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>0.9989781032687934</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>0.001021896731206606</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -25615,7 +25458,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>F48</t>
+          <t>F49</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -25652,16 +25495,16 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.007472535149493238</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>0.001319756985347316</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.0002932722694430816</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -25673,22 +25516,22 @@
         <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>0.0006514164833078043</v>
       </c>
       <c r="U79" t="n">
-        <v>0.9989781032687934</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0.001021896731206525</v>
+        <v>7.044052840002248e-05</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>0.001822514709835886</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>0.9551161264913229</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>0.03325393738284969</v>
       </c>
       <c r="Z79" t="n">
         <v>0</v>
@@ -25748,7 +25591,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>F49</t>
+          <t>F49A</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -25785,16 +25628,16 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.007472535149493272</v>
+        <v>0.007472535149493238</v>
       </c>
       <c r="N80" t="n">
-        <v>0.001319756985347322</v>
+        <v>0.001319756985347316</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0.000293272269443083</v>
+        <v>0.0002932722694430816</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -25806,22 +25649,22 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0.0006514164833077397</v>
+        <v>0.0006514164833078043</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>7.044052840001623e-05</v>
+        <v>7.044052840002248e-05</v>
       </c>
       <c r="W80" t="n">
-        <v>0.001822514709835766</v>
+        <v>0.001822514709835886</v>
       </c>
       <c r="X80" t="n">
-        <v>0.9551161264913238</v>
+        <v>0.9551161264913229</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.03325393738284903</v>
+        <v>0.03325393738284969</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -25881,7 +25724,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>F49A</t>
+          <t>F49B</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -25918,16 +25761,16 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.007472535149493272</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0.001319756985347322</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0.000293272269443083</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -25939,22 +25782,22 @@
         <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>0.0006514164833077397</v>
+        <v>0</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>7.044052840001623e-05</v>
+        <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0.001822514709835766</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0.9551161264913238</v>
+        <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.03325393738284903</v>
+        <v>0</v>
       </c>
       <c r="Z81" t="n">
         <v>0</v>
@@ -26014,7 +25857,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>F49B</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -26063,19 +25906,19 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>0</v>
+        <v>1.075443020314615e-06</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>0.000606210455616979</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>0.04521557274862402</v>
       </c>
       <c r="T82" t="n">
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>0.8716725170007781</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -26105,37 +25948,37 @@
         <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>0.07882631891438484</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>0.0007447442283601711</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>3.924429897077315e-05</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>3.1295979431029e-05</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>0.001220836287048698</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0</v>
+        <v>0.0002460154505312437</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
+        <v>3.563124964795491e-05</v>
       </c>
       <c r="AL82" t="n">
-        <v>0</v>
+        <v>2.066191613548034e-05</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>0.0008308949608284875</v>
       </c>
       <c r="AN82" t="n">
-        <v>0</v>
+        <v>0.0002036476215564808</v>
       </c>
       <c r="AO82" t="n">
-        <v>0</v>
+        <v>0.0003053334450654686</v>
       </c>
       <c r="AP82" t="n">
         <v>0</v>
@@ -26147,7 +25990,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>F50A</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -26184,10 +26027,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.007474727279726032</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>0.001320144147017304</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -26196,31 +26039,31 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.075443020314572e-06</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0006062104556169544</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0.04521557274863095</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>0.0006516075817420881</v>
       </c>
       <c r="U83" t="n">
-        <v>0.8716725170007744</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>7.046119271391736e-05</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>0.0018230493596589</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>0.9553963177376434</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
+        <v>0.03326369270149832</v>
       </c>
       <c r="Z83" t="n">
         <v>0</v>
@@ -26238,37 +26081,37 @@
         <v>0</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.07882631891438163</v>
+        <v>0</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.000744744228360141</v>
+        <v>0</v>
       </c>
       <c r="AG83" t="n">
-        <v>3.924429897077155e-05</v>
+        <v>0</v>
       </c>
       <c r="AH83" t="n">
-        <v>3.129597943102773e-05</v>
+        <v>0</v>
       </c>
       <c r="AI83" t="n">
-        <v>0.001220836287048649</v>
+        <v>0</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0.0002460154505312338</v>
+        <v>0</v>
       </c>
       <c r="AK83" t="n">
-        <v>3.563124964795347e-05</v>
+        <v>0</v>
       </c>
       <c r="AL83" t="n">
-        <v>2.06619161354795e-05</v>
+        <v>0</v>
       </c>
       <c r="AM83" t="n">
-        <v>0.0008308949608284538</v>
+        <v>0</v>
       </c>
       <c r="AN83" t="n">
-        <v>0.0002036476215564725</v>
+        <v>0</v>
       </c>
       <c r="AO83" t="n">
-        <v>0.0003053334450654561</v>
+        <v>0</v>
       </c>
       <c r="AP83" t="n">
         <v>0</v>
@@ -26280,7 +26123,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>F50A</t>
+          <t>F50B</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -26317,10 +26160,10 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.007474727279726065</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0.00132014414701731</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -26338,22 +26181,22 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0.0006516075817420234</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
         <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>7.04611927139111e-05</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>0.00182304935965878</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
-        <v>0.9553963177376442</v>
+        <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.03326369270149766</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
         <v>0</v>
@@ -26413,7 +26256,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>F50B</t>
+          <t>F51A</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -26546,7 +26389,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>F51A</t>
+          <t>F51B</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -26592,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -26616,10 +26459,10 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
+        <v>0.7110000000000001</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="Z86" t="n">
         <v>0</v>
@@ -26679,7 +26522,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>F51B</t>
+          <t>F52A</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -26725,7 +26568,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>0.09999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -26749,10 +26592,10 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0.7110000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
@@ -26812,7 +26655,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>F52A</t>
+          <t>F52B</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -26858,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -26882,10 +26725,10 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>0.7110000000000001</v>
       </c>
       <c r="Y88" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="Z88" t="n">
         <v>0</v>
@@ -26945,7 +26788,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>F52B</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -26991,22 +26834,22 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>0.09999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>1.075443020314615e-06</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>0.000606210455616979</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>0.04521557274862402</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>0.8716725170007781</v>
       </c>
       <c r="V89" t="n">
         <v>0</v>
@@ -27015,10 +26858,10 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0.7110000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="Z89" t="n">
         <v>0</v>
@@ -27036,37 +26879,37 @@
         <v>0</v>
       </c>
       <c r="AE89" t="n">
-        <v>0</v>
+        <v>0.07882631891438484</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>0.0007447442283601711</v>
       </c>
       <c r="AG89" t="n">
-        <v>0</v>
+        <v>3.924429897077315e-05</v>
       </c>
       <c r="AH89" t="n">
-        <v>0</v>
+        <v>3.1295979431029e-05</v>
       </c>
       <c r="AI89" t="n">
-        <v>0</v>
+        <v>0.001220836287048698</v>
       </c>
       <c r="AJ89" t="n">
-        <v>0</v>
+        <v>0.0002460154505312437</v>
       </c>
       <c r="AK89" t="n">
-        <v>0</v>
+        <v>3.563124964795491e-05</v>
       </c>
       <c r="AL89" t="n">
-        <v>0</v>
+        <v>2.066191613548034e-05</v>
       </c>
       <c r="AM89" t="n">
-        <v>0</v>
+        <v>0.0008308949608284875</v>
       </c>
       <c r="AN89" t="n">
-        <v>0</v>
+        <v>0.0002036476215564808</v>
       </c>
       <c r="AO89" t="n">
-        <v>0</v>
+        <v>0.0003053334450654686</v>
       </c>
       <c r="AP89" t="n">
         <v>0</v>
@@ -27078,7 +26921,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -27127,19 +26970,19 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.075443020314572e-06</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0.0006062104556169544</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0.04521557274863095</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>0.8716725170007744</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
         <v>0</v>
@@ -27154,10 +26997,10 @@
         <v>0</v>
       </c>
       <c r="Z90" t="n">
-        <v>0</v>
+        <v>0.2151108391540594</v>
       </c>
       <c r="AA90" t="n">
-        <v>0</v>
+        <v>0.7847348816735463</v>
       </c>
       <c r="AB90" t="n">
         <v>0</v>
@@ -27169,37 +27012,37 @@
         <v>0</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.07882631891438163</v>
+        <v>0.0001493079621465448</v>
       </c>
       <c r="AF90" t="n">
-        <v>0.000744744228360141</v>
+        <v>3.524133623707533e-25</v>
       </c>
       <c r="AG90" t="n">
-        <v>3.924429897077155e-05</v>
+        <v>0</v>
       </c>
       <c r="AH90" t="n">
-        <v>3.129597943102773e-05</v>
+        <v>0</v>
       </c>
       <c r="AI90" t="n">
-        <v>0.001220836287048649</v>
+        <v>0</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0.0002460154505312338</v>
+        <v>0</v>
       </c>
       <c r="AK90" t="n">
-        <v>3.563124964795347e-05</v>
+        <v>0</v>
       </c>
       <c r="AL90" t="n">
-        <v>2.06619161354795e-05</v>
+        <v>0</v>
       </c>
       <c r="AM90" t="n">
-        <v>0.0008308949608284538</v>
+        <v>0</v>
       </c>
       <c r="AN90" t="n">
-        <v>0.0002036476215564725</v>
+        <v>0</v>
       </c>
       <c r="AO90" t="n">
-        <v>0.0003053334450654561</v>
+        <v>4.971210247681217e-06</v>
       </c>
       <c r="AP90" t="n">
         <v>0</v>
@@ -27211,7 +27054,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -27287,10 +27130,10 @@
         <v>0</v>
       </c>
       <c r="Z91" t="n">
-        <v>0.2151108391540674</v>
+        <v>0.1833566925789815</v>
       </c>
       <c r="AA91" t="n">
-        <v>0.7847348816735753</v>
+        <v>0.679799257459996</v>
       </c>
       <c r="AB91" t="n">
         <v>0</v>
@@ -27302,13 +27145,13 @@
         <v>0</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.0001493079621107672</v>
+        <v>0.1364910537792477</v>
       </c>
       <c r="AF91" t="n">
-        <v>3.524133622877171e-25</v>
+        <v>0.000321677734892739</v>
       </c>
       <c r="AG91" t="n">
-        <v>0</v>
+        <v>1.483235231385273e-05</v>
       </c>
       <c r="AH91" t="n">
         <v>0</v>
@@ -27332,7 +27175,7 @@
         <v>0</v>
       </c>
       <c r="AO91" t="n">
-        <v>4.971210246509891e-06</v>
+        <v>1.648609456823958e-05</v>
       </c>
       <c r="AP91" t="n">
         <v>0</v>
@@ -27344,7 +27187,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -27399,13 +27242,13 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="T92" t="n">
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>0.9864864864864864</v>
       </c>
       <c r="V92" t="n">
         <v>0</v>
@@ -27420,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.1833566925790558</v>
+        <v>0</v>
       </c>
       <c r="AA92" t="n">
-        <v>0.6797992574602716</v>
+        <v>0</v>
       </c>
       <c r="AB92" t="n">
-        <v>0</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="AC92" t="n">
         <v>0</v>
@@ -27435,13 +27278,13 @@
         <v>0</v>
       </c>
       <c r="AE92" t="n">
-        <v>0.1364910537788986</v>
+        <v>0</v>
       </c>
       <c r="AF92" t="n">
-        <v>0.0003216777348919595</v>
+        <v>0</v>
       </c>
       <c r="AG92" t="n">
-        <v>1.48323523138168e-05</v>
+        <v>0</v>
       </c>
       <c r="AH92" t="n">
         <v>0</v>
@@ -27465,145 +27308,12 @@
         <v>0</v>
       </c>
       <c r="AO92" t="n">
-        <v>1.648609456819963e-05</v>
+        <v>0</v>
       </c>
       <c r="AP92" t="n">
         <v>0</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.009009009009009009</v>
-      </c>
-      <c r="T93" t="n">
-        <v>0</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0.9864864864864864</v>
-      </c>
-      <c r="V93" t="n">
-        <v>0</v>
-      </c>
-      <c r="W93" t="n">
-        <v>0</v>
-      </c>
-      <c r="X93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>0.004504504504504504</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ93" t="n">
         <v>0</v>
       </c>
     </row>

--- a/stream_table.xlsx
+++ b/stream_table.xlsx
@@ -2273,10 +2273,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.0108381924</v>
+        <v>0.009754373160000001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5610452723848225</v>
+        <v>0.2814199084648225</v>
       </c>
     </row>
     <row r="78">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>0.00108381924</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>0.09999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -26047,10 +26047,10 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>0.7110000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.189</v>
+        <v>0.21</v>
       </c>
       <c r="Z77" t="n">
         <v>0</v>
